--- a/HW03/活頁簿1.xlsx
+++ b/HW03/活頁簿1.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$A$76</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="51">
   <si>
     <t>R1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -203,6 +206,26 @@
   </si>
   <si>
     <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pro T1=2 T2=4 T3=5 R1=3 R2=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -614,8 +637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EF76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="M81" sqref="M81"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="J64" sqref="J64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7075,51 +7098,212 @@
       <c r="A60" t="s">
         <v>26</v>
       </c>
-      <c r="D60"/>
-      <c r="E60"/>
-      <c r="F60"/>
-      <c r="G60"/>
-      <c r="H60"/>
-      <c r="I60"/>
-      <c r="J60"/>
-      <c r="K60"/>
-      <c r="L60"/>
-      <c r="M60"/>
-      <c r="N60"/>
-      <c r="O60"/>
-      <c r="P60"/>
-      <c r="Q60"/>
-      <c r="R60"/>
-      <c r="S60"/>
-      <c r="T60"/>
-      <c r="U60"/>
-      <c r="V60"/>
-      <c r="W60"/>
-      <c r="X60"/>
-      <c r="Y60"/>
-      <c r="Z60"/>
-      <c r="AA60"/>
-      <c r="AB60"/>
-      <c r="AC60"/>
-      <c r="AD60"/>
-      <c r="AE60"/>
-      <c r="AF60"/>
-      <c r="AG60"/>
-      <c r="AH60"/>
-      <c r="AI60"/>
-      <c r="AJ60"/>
-      <c r="AK60"/>
-      <c r="AL60"/>
-      <c r="AM60"/>
-      <c r="AN60"/>
-      <c r="AO60"/>
-      <c r="AP60"/>
-      <c r="AQ60"/>
-      <c r="AR60"/>
+      <c r="D60" s="4">
+        <v>3</v>
+      </c>
+      <c r="E60" s="3">
+        <v>3</v>
+      </c>
+      <c r="F60" s="3">
+        <v>3</v>
+      </c>
+      <c r="G60" s="3">
+        <v>3</v>
+      </c>
+      <c r="H60" s="3">
+        <v>3</v>
+      </c>
+      <c r="I60" s="3">
+        <v>3</v>
+      </c>
+      <c r="J60" s="4">
+        <v>1</v>
+      </c>
+      <c r="K60" s="2">
+        <v>1</v>
+      </c>
+      <c r="L60" s="2">
+        <v>1</v>
+      </c>
+      <c r="M60" s="2">
+        <v>1</v>
+      </c>
+      <c r="N60" s="4">
+        <v>1</v>
+      </c>
+      <c r="O60" s="4">
+        <v>2</v>
+      </c>
+      <c r="P60" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q60" s="4">
+        <v>2</v>
+      </c>
+      <c r="R60" s="4">
+        <v>3</v>
+      </c>
+      <c r="S60" s="11"/>
+      <c r="T60" s="11"/>
+      <c r="U60" s="11"/>
+      <c r="V60" s="11"/>
+      <c r="W60" s="11"/>
+      <c r="X60" s="11"/>
+      <c r="Y60" s="11"/>
+      <c r="Z60" s="11"/>
+      <c r="AA60" s="11"/>
+      <c r="AB60" s="11"/>
+      <c r="AC60" s="11"/>
+      <c r="AD60" s="11"/>
+      <c r="AE60" s="11"/>
+      <c r="AF60" s="11"/>
+      <c r="AG60" s="11"/>
+      <c r="AH60" s="11"/>
+      <c r="AI60" s="11"/>
+      <c r="AJ60" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK60" s="2"/>
+      <c r="AL60" s="2">
+        <v>1</v>
+      </c>
+      <c r="AM60" s="2"/>
+      <c r="AN60" s="4">
+        <v>1</v>
+      </c>
+      <c r="AO60" s="11"/>
+      <c r="AP60" s="11"/>
+      <c r="AQ60" s="11"/>
+      <c r="AR60" s="11"/>
+      <c r="AS60" s="11"/>
+      <c r="AT60" s="11"/>
+      <c r="AU60" s="11"/>
+      <c r="AV60" s="11"/>
+      <c r="AW60" s="11"/>
+      <c r="AX60" s="11"/>
+      <c r="AY60" s="11"/>
+      <c r="AZ60" s="11"/>
+      <c r="BA60" s="11"/>
+      <c r="BB60" s="11"/>
+      <c r="BC60" s="11"/>
+      <c r="BD60" s="11"/>
+      <c r="BE60" s="11"/>
+      <c r="BF60" s="11"/>
+      <c r="BG60" s="11"/>
+      <c r="BH60" s="11"/>
+      <c r="BI60" s="11"/>
+      <c r="BJ60" s="11"/>
+      <c r="BK60" s="11"/>
+      <c r="BL60" s="11"/>
+      <c r="BM60" s="11"/>
+      <c r="BN60" s="4">
+        <v>1</v>
+      </c>
+      <c r="BO60" s="2"/>
+      <c r="BP60" s="2">
+        <v>1</v>
+      </c>
+      <c r="BQ60" s="2"/>
+      <c r="BR60" s="4">
+        <v>1</v>
+      </c>
+      <c r="BS60" s="4">
+        <v>2</v>
+      </c>
+      <c r="BT60" s="4">
+        <v>2</v>
+      </c>
+      <c r="BU60" s="4">
+        <v>2</v>
+      </c>
+      <c r="BV60" s="11"/>
+      <c r="BW60" s="11"/>
+      <c r="BX60" s="11"/>
+      <c r="BY60" s="11"/>
+      <c r="BZ60" s="11"/>
+      <c r="CA60" s="11"/>
+      <c r="CB60" s="11"/>
+      <c r="CC60" s="11"/>
+      <c r="CD60" s="11"/>
+      <c r="CE60" s="11"/>
+      <c r="CF60" s="11"/>
+      <c r="CG60" s="11"/>
+      <c r="CH60" s="11"/>
+      <c r="CI60" s="11"/>
+      <c r="CJ60" s="11"/>
+      <c r="CK60" s="11"/>
+      <c r="CL60" s="11"/>
+      <c r="CM60" s="11"/>
+      <c r="CN60" s="11"/>
+      <c r="CO60" s="11"/>
+      <c r="CP60" s="4">
+        <v>3</v>
+      </c>
+      <c r="CQ60" s="3"/>
+      <c r="CR60" s="3"/>
+      <c r="CS60" s="3">
+        <v>3</v>
+      </c>
+      <c r="CT60" s="3"/>
+      <c r="CU60" s="3"/>
+      <c r="CV60" s="4">
+        <v>1</v>
+      </c>
+      <c r="CW60" s="2"/>
+      <c r="CX60" s="2">
+        <v>1</v>
+      </c>
+      <c r="CY60" s="2"/>
+      <c r="CZ60" s="4">
+        <v>1</v>
+      </c>
+      <c r="DA60" s="4">
+        <v>3</v>
+      </c>
+      <c r="DB60" s="11"/>
+      <c r="DC60" s="11"/>
+      <c r="DD60" s="11"/>
+      <c r="DE60" s="11"/>
+      <c r="DF60" s="11"/>
+      <c r="DG60" s="11"/>
+      <c r="DH60" s="11"/>
+      <c r="DI60" s="11"/>
+      <c r="DJ60" s="11"/>
+      <c r="DK60" s="11"/>
+      <c r="DL60" s="11"/>
+      <c r="DM60" s="11"/>
+      <c r="DN60" s="11"/>
+      <c r="DO60" s="11"/>
+      <c r="DP60" s="11"/>
+      <c r="DQ60" s="11"/>
+      <c r="DR60" s="11"/>
+      <c r="DS60" s="11"/>
+      <c r="DT60" s="11"/>
+      <c r="DU60" s="11"/>
+      <c r="DV60" s="4">
+        <v>1</v>
+      </c>
+      <c r="DW60" s="2"/>
+      <c r="DX60" s="2">
+        <v>1</v>
+      </c>
+      <c r="DY60" s="2"/>
+      <c r="DZ60" s="4">
+        <v>1</v>
+      </c>
+      <c r="EA60" s="4">
+        <v>2</v>
+      </c>
+      <c r="EB60" s="4">
+        <v>2</v>
+      </c>
+      <c r="EC60" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="61" spans="1:136">
       <c r="A61" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="D61" s="1">
         <v>0</v>
@@ -7519,6 +7703,151 @@
       </c>
       <c r="EF61" s="1">
         <v>132</v>
+      </c>
+    </row>
+    <row r="63" spans="1:136">
+      <c r="D63" s="5">
+        <v>5</v>
+      </c>
+      <c r="E63" s="5">
+        <v>1</v>
+      </c>
+      <c r="F63" s="5">
+        <v>1</v>
+      </c>
+      <c r="G63" s="5">
+        <v>1</v>
+      </c>
+      <c r="H63" s="5">
+        <v>1</v>
+      </c>
+      <c r="I63" s="5">
+        <v>1</v>
+      </c>
+      <c r="J63" s="5">
+        <v>2</v>
+      </c>
+      <c r="K63" s="5">
+        <v>3</v>
+      </c>
+      <c r="L63" s="5">
+        <v>3</v>
+      </c>
+      <c r="M63" s="5">
+        <v>3</v>
+      </c>
+      <c r="N63" s="5">
+        <v>2</v>
+      </c>
+      <c r="O63" s="5">
+        <v>4</v>
+      </c>
+      <c r="P63" s="5">
+        <v>4</v>
+      </c>
+      <c r="Q63" s="5">
+        <v>4</v>
+      </c>
+      <c r="R63" s="5">
+        <v>5</v>
+      </c>
+      <c r="AJ63" s="5">
+        <v>2</v>
+      </c>
+      <c r="AK63" s="5">
+        <v>3</v>
+      </c>
+      <c r="AL63" s="5">
+        <v>3</v>
+      </c>
+      <c r="AM63" s="5">
+        <v>3</v>
+      </c>
+      <c r="AN63" s="5">
+        <v>2</v>
+      </c>
+      <c r="BN63">
+        <v>2</v>
+      </c>
+      <c r="BO63">
+        <v>3</v>
+      </c>
+      <c r="BP63">
+        <v>3</v>
+      </c>
+      <c r="BQ63">
+        <v>3</v>
+      </c>
+      <c r="BR63">
+        <v>2</v>
+      </c>
+      <c r="BS63">
+        <v>4</v>
+      </c>
+      <c r="BT63">
+        <v>4</v>
+      </c>
+      <c r="BU63">
+        <v>4</v>
+      </c>
+      <c r="CP63" s="5">
+        <v>5</v>
+      </c>
+      <c r="CQ63" s="5">
+        <v>1</v>
+      </c>
+      <c r="CR63" s="5">
+        <v>1</v>
+      </c>
+      <c r="CS63" s="5">
+        <v>1</v>
+      </c>
+      <c r="CT63" s="5">
+        <v>1</v>
+      </c>
+      <c r="CU63" s="5">
+        <v>1</v>
+      </c>
+      <c r="CV63" s="5">
+        <v>2</v>
+      </c>
+      <c r="CW63" s="5">
+        <v>3</v>
+      </c>
+      <c r="CX63" s="5">
+        <v>3</v>
+      </c>
+      <c r="CY63" s="5">
+        <v>3</v>
+      </c>
+      <c r="CZ63" s="5">
+        <v>2</v>
+      </c>
+      <c r="DA63" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:136">
+      <c r="D64" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J64" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K64" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="N64" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="O64" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R64" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="67" spans="1:136">
@@ -8211,25 +8540,25 @@
       <c r="P71" s="4">
         <v>2</v>
       </c>
-      <c r="Q71"/>
-      <c r="R71"/>
-      <c r="S71"/>
-      <c r="T71"/>
-      <c r="U71"/>
-      <c r="V71"/>
-      <c r="W71"/>
-      <c r="X71"/>
-      <c r="Y71"/>
-      <c r="Z71"/>
-      <c r="AA71"/>
-      <c r="AB71"/>
-      <c r="AC71"/>
-      <c r="AD71"/>
-      <c r="AE71"/>
-      <c r="AF71"/>
-      <c r="AG71"/>
-      <c r="AH71"/>
-      <c r="AI71"/>
+      <c r="Q71" s="11"/>
+      <c r="R71" s="11"/>
+      <c r="S71" s="11"/>
+      <c r="T71" s="11"/>
+      <c r="U71" s="11"/>
+      <c r="V71" s="11"/>
+      <c r="W71" s="11"/>
+      <c r="X71" s="11"/>
+      <c r="Y71" s="11"/>
+      <c r="Z71" s="11"/>
+      <c r="AA71" s="11"/>
+      <c r="AB71" s="11"/>
+      <c r="AC71" s="11"/>
+      <c r="AD71" s="11"/>
+      <c r="AE71" s="11"/>
+      <c r="AF71" s="11"/>
+      <c r="AG71" s="11"/>
+      <c r="AH71" s="11"/>
+      <c r="AI71" s="11"/>
       <c r="AJ71" s="4">
         <v>1</v>
       </c>
@@ -8244,9 +8573,28 @@
       <c r="AO71" s="4">
         <v>1</v>
       </c>
-      <c r="AP71"/>
-      <c r="AQ71"/>
-      <c r="AR71"/>
+      <c r="AP71" s="11"/>
+      <c r="AQ71" s="11"/>
+      <c r="AR71" s="11"/>
+      <c r="AS71" s="11"/>
+      <c r="AT71" s="11"/>
+      <c r="AU71" s="11"/>
+      <c r="AV71" s="11"/>
+      <c r="AW71" s="11"/>
+      <c r="AX71" s="11"/>
+      <c r="AY71" s="11"/>
+      <c r="AZ71" s="11"/>
+      <c r="BA71" s="11"/>
+      <c r="BB71" s="11"/>
+      <c r="BC71" s="11"/>
+      <c r="BD71" s="11"/>
+      <c r="BE71" s="11"/>
+      <c r="BF71" s="11"/>
+      <c r="BG71" s="11"/>
+      <c r="BH71" s="11"/>
+      <c r="BI71" s="11"/>
+      <c r="BJ71" s="11"/>
+      <c r="BK71" s="11"/>
       <c r="BL71" s="4">
         <v>2</v>
       </c>
@@ -8284,6 +8632,25 @@
       <c r="BX71" s="4">
         <v>2</v>
       </c>
+      <c r="BY71" s="11"/>
+      <c r="BZ71" s="11"/>
+      <c r="CA71" s="11"/>
+      <c r="CB71" s="11"/>
+      <c r="CC71" s="11"/>
+      <c r="CD71" s="11"/>
+      <c r="CE71" s="11"/>
+      <c r="CF71" s="11"/>
+      <c r="CG71" s="11"/>
+      <c r="CH71" s="11"/>
+      <c r="CI71" s="11"/>
+      <c r="CJ71" s="11"/>
+      <c r="CK71" s="11"/>
+      <c r="CL71" s="11"/>
+      <c r="CM71" s="11"/>
+      <c r="CN71" s="11"/>
+      <c r="CO71" s="11"/>
+      <c r="CP71" s="11"/>
+      <c r="CQ71" s="11"/>
       <c r="CR71" s="4">
         <v>1</v>
       </c>
@@ -8298,6 +8665,28 @@
       <c r="CW71" s="4">
         <v>1</v>
       </c>
+      <c r="CX71" s="11"/>
+      <c r="CY71" s="11"/>
+      <c r="CZ71" s="11"/>
+      <c r="DA71" s="11"/>
+      <c r="DB71" s="11"/>
+      <c r="DC71" s="11"/>
+      <c r="DD71" s="11"/>
+      <c r="DE71" s="11"/>
+      <c r="DF71" s="11"/>
+      <c r="DG71" s="11"/>
+      <c r="DH71" s="11"/>
+      <c r="DI71" s="11"/>
+      <c r="DJ71" s="11"/>
+      <c r="DK71" s="11"/>
+      <c r="DL71" s="11"/>
+      <c r="DM71" s="11"/>
+      <c r="DN71" s="11"/>
+      <c r="DO71" s="11"/>
+      <c r="DP71" s="11"/>
+      <c r="DQ71" s="11"/>
+      <c r="DR71" s="11"/>
+      <c r="DS71" s="11"/>
       <c r="DT71" s="4">
         <v>2</v>
       </c>

--- a/HW03/活頁簿1.xlsx
+++ b/HW03/活頁簿1.xlsx
@@ -15,7 +15,7 @@
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$A$76</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$A$79</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="101">
   <si>
     <t>R1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -193,43 +193,243 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>o</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>o</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>o</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>o</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>pro T1=2 T2=4 T3=5 R1=3 R2=1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>x</t>
+    <t>G2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>o</t>
+    <t>G1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>x</t>
+    <t>G2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>x</t>
+    <t>R1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T63</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T63</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T63</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T63</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T63</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T63</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pro T1=2 T2=4 R1=3 R2=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -635,10 +835,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EF76"/>
+  <dimension ref="A1:EG77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="J64" sqref="J64"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="AA78" sqref="AA78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1626,19 +1826,37 @@
       </c>
     </row>
     <row r="8" spans="1:136">
-      <c r="D8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
+      <c r="I8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
+      <c r="N8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
@@ -1668,6 +1886,11 @@
       <c r="AQ8" s="1"/>
       <c r="AR8" s="1"/>
     </row>
+    <row r="9" spans="1:136">
+      <c r="K9" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
     <row r="11" spans="1:136">
       <c r="D11" s="1">
         <v>0</v>
@@ -2790,6 +3013,103 @@
         <v>132</v>
       </c>
     </row>
+    <row r="18" spans="1:136">
+      <c r="D18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="O18" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="R18" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="S18" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH18" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AI18" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL18" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM18" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="BL18" t="s">
+        <v>64</v>
+      </c>
+      <c r="BM18" t="s">
+        <v>61</v>
+      </c>
+      <c r="BP18" t="s">
+        <v>45</v>
+      </c>
+      <c r="BS18" t="s">
+        <v>55</v>
+      </c>
+      <c r="BT18" t="s">
+        <v>66</v>
+      </c>
+      <c r="CP18" t="s">
+        <v>67</v>
+      </c>
+      <c r="CQ18" t="s">
+        <v>72</v>
+      </c>
+      <c r="CT18" t="s">
+        <v>73</v>
+      </c>
+      <c r="CU18" t="s">
+        <v>69</v>
+      </c>
+      <c r="CV18" t="s">
+        <v>52</v>
+      </c>
+      <c r="DA18" t="s">
+        <v>48</v>
+      </c>
+      <c r="DB18" t="s">
+        <v>70</v>
+      </c>
+      <c r="DT18" t="s">
+        <v>56</v>
+      </c>
+      <c r="DU18" t="s">
+        <v>82</v>
+      </c>
+      <c r="DX18" t="s">
+        <v>83</v>
+      </c>
+      <c r="EA18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:136">
+      <c r="J19" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="BP19" t="s">
+        <v>54</v>
+      </c>
+      <c r="DX19" t="s">
+        <v>84</v>
+      </c>
+    </row>
     <row r="21" spans="1:136">
       <c r="D21" s="1">
         <v>0</v>
@@ -3934,6 +4254,145 @@
       </c>
       <c r="EF26" s="1">
         <v>132</v>
+      </c>
+    </row>
+    <row r="27" spans="1:136">
+      <c r="D27" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="M27" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="O27" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="P27" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ27" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK27" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM27" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO27" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="BL27" t="s">
+        <v>74</v>
+      </c>
+      <c r="BM27" t="s">
+        <v>75</v>
+      </c>
+      <c r="BP27" t="s">
+        <v>46</v>
+      </c>
+      <c r="BR27" t="s">
+        <v>45</v>
+      </c>
+      <c r="BS27" t="s">
+        <v>61</v>
+      </c>
+      <c r="BU27" t="s">
+        <v>48</v>
+      </c>
+      <c r="BW27" t="s">
+        <v>76</v>
+      </c>
+      <c r="BX27" t="s">
+        <v>54</v>
+      </c>
+      <c r="BY27" t="s">
+        <v>66</v>
+      </c>
+      <c r="CR27" t="s">
+        <v>55</v>
+      </c>
+      <c r="CS27" t="s">
+        <v>52</v>
+      </c>
+      <c r="CU27" t="s">
+        <v>45</v>
+      </c>
+      <c r="CW27" t="s">
+        <v>68</v>
+      </c>
+      <c r="CX27" t="s">
+        <v>70</v>
+      </c>
+      <c r="DT27" t="s">
+        <v>77</v>
+      </c>
+      <c r="DU27" t="s">
+        <v>78</v>
+      </c>
+      <c r="DX27" t="s">
+        <v>79</v>
+      </c>
+      <c r="DZ27" t="s">
+        <v>81</v>
+      </c>
+      <c r="EA27" t="s">
+        <v>80</v>
+      </c>
+      <c r="EC27" t="s">
+        <v>48</v>
+      </c>
+      <c r="EE27" t="s">
+        <v>79</v>
+      </c>
+      <c r="EF27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:136">
+      <c r="H28" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="M28" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM28" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="BP28" t="s">
+        <v>52</v>
+      </c>
+      <c r="BR28" t="s">
+        <v>67</v>
+      </c>
+      <c r="BU28" t="s">
+        <v>75</v>
+      </c>
+      <c r="CU28" t="s">
+        <v>44</v>
+      </c>
+      <c r="DX28" t="s">
+        <v>80</v>
+      </c>
+      <c r="DZ28" t="s">
+        <v>55</v>
+      </c>
+      <c r="EC28" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:136">
@@ -7303,7 +7762,7 @@
     </row>
     <row r="61" spans="1:136">
       <c r="A61" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D61" s="1">
         <v>0</v>
@@ -7705,690 +8164,651 @@
         <v>132</v>
       </c>
     </row>
+    <row r="62" spans="1:136">
+      <c r="D62" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="J62" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K62" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="N62" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O62" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="R62" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="S62" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ62" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK62" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN62" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO62" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN62" t="s">
+        <v>55</v>
+      </c>
+      <c r="BO62" t="s">
+        <v>61</v>
+      </c>
+      <c r="BR62" t="s">
+        <v>45</v>
+      </c>
+      <c r="BS62" t="s">
+        <v>54</v>
+      </c>
+      <c r="BV62" t="s">
+        <v>66</v>
+      </c>
+      <c r="CP62" t="s">
+        <v>58</v>
+      </c>
+      <c r="CQ62" t="s">
+        <v>89</v>
+      </c>
+      <c r="CV62" t="s">
+        <v>46</v>
+      </c>
+      <c r="CW62" t="s">
+        <v>61</v>
+      </c>
+      <c r="CZ62" t="s">
+        <v>48</v>
+      </c>
+      <c r="DA62" t="s">
+        <v>91</v>
+      </c>
+      <c r="DB62" t="s">
+        <v>92</v>
+      </c>
+      <c r="DV62" t="s">
+        <v>93</v>
+      </c>
+      <c r="DW62" t="s">
+        <v>88</v>
+      </c>
+      <c r="DZ62" t="s">
+        <v>94</v>
+      </c>
+      <c r="EA62" t="s">
+        <v>54</v>
+      </c>
+      <c r="ED62" t="s">
+        <v>63</v>
+      </c>
+    </row>
     <row r="63" spans="1:136">
-      <c r="D63" s="5">
-        <v>5</v>
-      </c>
-      <c r="E63" s="5">
-        <v>1</v>
-      </c>
-      <c r="F63" s="5">
-        <v>1</v>
-      </c>
-      <c r="G63" s="5">
-        <v>1</v>
-      </c>
-      <c r="H63" s="5">
-        <v>1</v>
-      </c>
-      <c r="I63" s="5">
-        <v>1</v>
-      </c>
-      <c r="J63" s="5">
-        <v>2</v>
-      </c>
-      <c r="K63" s="5">
-        <v>3</v>
-      </c>
-      <c r="L63" s="5">
-        <v>3</v>
-      </c>
-      <c r="M63" s="5">
-        <v>3</v>
-      </c>
-      <c r="N63" s="5">
-        <v>2</v>
-      </c>
-      <c r="O63" s="5">
-        <v>4</v>
-      </c>
-      <c r="P63" s="5">
-        <v>4</v>
-      </c>
-      <c r="Q63" s="5">
-        <v>4</v>
-      </c>
-      <c r="R63" s="5">
-        <v>5</v>
-      </c>
-      <c r="AJ63" s="5">
-        <v>2</v>
-      </c>
-      <c r="AK63" s="5">
-        <v>3</v>
-      </c>
-      <c r="AL63" s="5">
-        <v>3</v>
-      </c>
-      <c r="AM63" s="5">
-        <v>3</v>
-      </c>
-      <c r="AN63" s="5">
-        <v>2</v>
-      </c>
-      <c r="BN63">
-        <v>2</v>
-      </c>
-      <c r="BO63">
-        <v>3</v>
-      </c>
-      <c r="BP63">
-        <v>3</v>
-      </c>
-      <c r="BQ63">
-        <v>3</v>
-      </c>
-      <c r="BR63">
-        <v>2</v>
-      </c>
-      <c r="BS63">
-        <v>4</v>
-      </c>
-      <c r="BT63">
-        <v>4</v>
-      </c>
-      <c r="BU63">
-        <v>4</v>
-      </c>
-      <c r="CP63" s="5">
-        <v>5</v>
-      </c>
-      <c r="CQ63" s="5">
-        <v>1</v>
-      </c>
-      <c r="CR63" s="5">
-        <v>1</v>
-      </c>
-      <c r="CS63" s="5">
-        <v>1</v>
-      </c>
-      <c r="CT63" s="5">
-        <v>1</v>
-      </c>
-      <c r="CU63" s="5">
-        <v>1</v>
-      </c>
-      <c r="CV63" s="5">
-        <v>2</v>
-      </c>
-      <c r="CW63" s="5">
-        <v>3</v>
-      </c>
-      <c r="CX63" s="5">
-        <v>3</v>
-      </c>
-      <c r="CY63" s="5">
-        <v>3</v>
-      </c>
-      <c r="CZ63" s="5">
-        <v>2</v>
-      </c>
-      <c r="DA63" s="5">
-        <v>5</v>
+      <c r="J63" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="CV63" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="64" spans="1:136">
-      <c r="D64" s="5" t="s">
+      <c r="D64" s="5">
+        <v>5</v>
+      </c>
+      <c r="E64" s="5">
+        <v>1</v>
+      </c>
+      <c r="F64" s="5">
+        <v>1</v>
+      </c>
+      <c r="G64" s="5">
+        <v>1</v>
+      </c>
+      <c r="H64" s="5">
+        <v>1</v>
+      </c>
+      <c r="I64" s="5">
+        <v>1</v>
+      </c>
+      <c r="J64" s="5">
+        <v>2</v>
+      </c>
+      <c r="K64" s="5">
+        <v>3</v>
+      </c>
+      <c r="L64" s="5">
+        <v>3</v>
+      </c>
+      <c r="M64" s="5">
+        <v>3</v>
+      </c>
+      <c r="N64" s="5">
+        <v>2</v>
+      </c>
+      <c r="O64" s="5">
+        <v>4</v>
+      </c>
+      <c r="P64" s="5">
+        <v>4</v>
+      </c>
+      <c r="Q64" s="5">
+        <v>4</v>
+      </c>
+      <c r="R64" s="5">
+        <v>5</v>
+      </c>
+      <c r="AJ64" s="5">
+        <v>2</v>
+      </c>
+      <c r="AK64" s="5">
+        <v>3</v>
+      </c>
+      <c r="AL64" s="5">
+        <v>3</v>
+      </c>
+      <c r="AM64" s="5">
+        <v>3</v>
+      </c>
+      <c r="AN64" s="5">
+        <v>2</v>
+      </c>
+      <c r="BN64">
+        <v>2</v>
+      </c>
+      <c r="BO64">
+        <v>3</v>
+      </c>
+      <c r="BP64">
+        <v>3</v>
+      </c>
+      <c r="BQ64">
+        <v>3</v>
+      </c>
+      <c r="BR64">
+        <v>2</v>
+      </c>
+      <c r="BS64">
+        <v>4</v>
+      </c>
+      <c r="BT64">
+        <v>4</v>
+      </c>
+      <c r="BU64">
+        <v>4</v>
+      </c>
+      <c r="CP64" s="5">
+        <v>5</v>
+      </c>
+      <c r="CQ64" s="5">
+        <v>1</v>
+      </c>
+      <c r="CR64" s="5">
+        <v>1</v>
+      </c>
+      <c r="CS64" s="5">
+        <v>1</v>
+      </c>
+      <c r="CT64" s="5">
+        <v>1</v>
+      </c>
+      <c r="CU64" s="5">
+        <v>1</v>
+      </c>
+      <c r="CV64" s="5">
+        <v>2</v>
+      </c>
+      <c r="CW64" s="5">
+        <v>3</v>
+      </c>
+      <c r="CX64" s="5">
+        <v>3</v>
+      </c>
+      <c r="CY64" s="5">
+        <v>3</v>
+      </c>
+      <c r="CZ64" s="5">
+        <v>2</v>
+      </c>
+      <c r="DA64" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:137">
+      <c r="D68" s="1">
+        <v>0</v>
+      </c>
+      <c r="E68" s="1">
+        <v>1</v>
+      </c>
+      <c r="F68" s="1">
+        <v>2</v>
+      </c>
+      <c r="G68" s="1">
+        <v>3</v>
+      </c>
+      <c r="H68" s="1">
+        <v>4</v>
+      </c>
+      <c r="I68" s="1">
+        <v>5</v>
+      </c>
+      <c r="J68" s="1">
+        <v>6</v>
+      </c>
+      <c r="K68" s="1">
+        <v>7</v>
+      </c>
+      <c r="L68" s="1">
+        <v>8</v>
+      </c>
+      <c r="M68" s="1">
+        <v>9</v>
+      </c>
+      <c r="N68" s="1">
+        <v>10</v>
+      </c>
+      <c r="O68" s="1">
+        <v>11</v>
+      </c>
+      <c r="P68" s="1">
+        <v>12</v>
+      </c>
+      <c r="Q68" s="1">
+        <v>13</v>
+      </c>
+      <c r="R68" s="1">
+        <v>14</v>
+      </c>
+      <c r="S68" s="1">
+        <v>15</v>
+      </c>
+      <c r="T68" s="1">
+        <v>16</v>
+      </c>
+      <c r="U68" s="1">
+        <v>17</v>
+      </c>
+      <c r="V68" s="1">
+        <v>18</v>
+      </c>
+      <c r="W68" s="1">
+        <v>19</v>
+      </c>
+      <c r="X68" s="1">
+        <v>20</v>
+      </c>
+      <c r="Y68" s="1">
+        <v>21</v>
+      </c>
+      <c r="Z68" s="1">
+        <v>22</v>
+      </c>
+      <c r="AA68" s="1">
+        <v>23</v>
+      </c>
+      <c r="AB68" s="1">
+        <v>24</v>
+      </c>
+      <c r="AC68" s="1">
+        <v>25</v>
+      </c>
+      <c r="AD68" s="1">
+        <v>26</v>
+      </c>
+      <c r="AE68" s="1">
+        <v>27</v>
+      </c>
+      <c r="AF68" s="1">
+        <v>28</v>
+      </c>
+      <c r="AG68" s="1">
+        <v>29</v>
+      </c>
+      <c r="AH68" s="1">
+        <v>30</v>
+      </c>
+      <c r="AI68" s="1">
+        <v>31</v>
+      </c>
+      <c r="AJ68" s="1">
+        <v>32</v>
+      </c>
+      <c r="AK68" s="1">
+        <v>33</v>
+      </c>
+      <c r="AL68" s="1">
+        <v>34</v>
+      </c>
+      <c r="AM68" s="1">
+        <v>35</v>
+      </c>
+      <c r="AN68" s="1">
+        <v>36</v>
+      </c>
+      <c r="AO68" s="1">
+        <v>37</v>
+      </c>
+      <c r="AP68" s="1">
+        <v>38</v>
+      </c>
+      <c r="AQ68" s="1">
+        <v>39</v>
+      </c>
+      <c r="AR68" s="1">
+        <v>40</v>
+      </c>
+      <c r="AS68" s="1">
+        <v>41</v>
+      </c>
+      <c r="AT68" s="1">
+        <v>42</v>
+      </c>
+      <c r="AU68" s="1">
+        <v>43</v>
+      </c>
+      <c r="AV68" s="1">
+        <v>44</v>
+      </c>
+      <c r="AW68" s="1">
+        <v>45</v>
+      </c>
+      <c r="AX68" s="1">
+        <v>46</v>
+      </c>
+      <c r="AY68" s="1">
         <v>47</v>
       </c>
-      <c r="E64" s="5" t="s">
+      <c r="AZ68" s="1">
         <v>48</v>
       </c>
-      <c r="J64" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="K64" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="N64" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="O64" s="5" t="s">
+      <c r="BA68" s="1">
         <v>49</v>
       </c>
-      <c r="R64" s="5" t="s">
+      <c r="BB68" s="1">
         <v>50</v>
       </c>
+      <c r="BC68" s="1">
+        <v>51</v>
+      </c>
+      <c r="BD68" s="1">
+        <v>52</v>
+      </c>
+      <c r="BE68" s="1">
+        <v>53</v>
+      </c>
+      <c r="BF68" s="1">
+        <v>54</v>
+      </c>
+      <c r="BG68" s="1">
+        <v>55</v>
+      </c>
+      <c r="BH68" s="1">
+        <v>56</v>
+      </c>
+      <c r="BI68" s="1">
+        <v>57</v>
+      </c>
+      <c r="BJ68" s="1">
+        <v>58</v>
+      </c>
+      <c r="BK68" s="1">
+        <v>59</v>
+      </c>
+      <c r="BL68" s="1">
+        <v>60</v>
+      </c>
+      <c r="BM68" s="1">
+        <v>61</v>
+      </c>
+      <c r="BN68" s="1">
+        <v>62</v>
+      </c>
+      <c r="BO68" s="1">
+        <v>63</v>
+      </c>
+      <c r="BP68" s="1">
+        <v>64</v>
+      </c>
+      <c r="BQ68" s="1">
+        <v>65</v>
+      </c>
+      <c r="BR68" s="1">
+        <v>66</v>
+      </c>
+      <c r="BS68" s="1">
+        <v>67</v>
+      </c>
+      <c r="BT68" s="1">
+        <v>68</v>
+      </c>
+      <c r="BU68" s="1">
+        <v>69</v>
+      </c>
+      <c r="BV68" s="1">
+        <v>70</v>
+      </c>
+      <c r="BW68" s="1">
+        <v>71</v>
+      </c>
+      <c r="BX68" s="1">
+        <v>72</v>
+      </c>
+      <c r="BY68" s="1">
+        <v>73</v>
+      </c>
+      <c r="BZ68" s="1">
+        <v>74</v>
+      </c>
+      <c r="CA68" s="1">
+        <v>75</v>
+      </c>
+      <c r="CB68" s="1">
+        <v>76</v>
+      </c>
+      <c r="CC68" s="1">
+        <v>77</v>
+      </c>
+      <c r="CD68" s="1">
+        <v>78</v>
+      </c>
+      <c r="CE68" s="1">
+        <v>79</v>
+      </c>
+      <c r="CF68" s="1">
+        <v>80</v>
+      </c>
+      <c r="CG68" s="1">
+        <v>81</v>
+      </c>
+      <c r="CH68" s="1">
+        <v>82</v>
+      </c>
+      <c r="CI68" s="1">
+        <v>83</v>
+      </c>
+      <c r="CJ68" s="1">
+        <v>84</v>
+      </c>
+      <c r="CK68" s="1">
+        <v>85</v>
+      </c>
+      <c r="CL68" s="1">
+        <v>86</v>
+      </c>
+      <c r="CM68" s="1">
+        <v>87</v>
+      </c>
+      <c r="CN68" s="1">
+        <v>88</v>
+      </c>
+      <c r="CO68" s="1">
+        <v>89</v>
+      </c>
+      <c r="CP68" s="1">
+        <v>90</v>
+      </c>
+      <c r="CQ68" s="1">
+        <v>91</v>
+      </c>
+      <c r="CR68" s="1">
+        <v>92</v>
+      </c>
+      <c r="CS68" s="1">
+        <v>93</v>
+      </c>
+      <c r="CT68" s="1">
+        <v>94</v>
+      </c>
+      <c r="CU68" s="1">
+        <v>95</v>
+      </c>
+      <c r="CV68" s="1">
+        <v>96</v>
+      </c>
+      <c r="CW68" s="1">
+        <v>97</v>
+      </c>
+      <c r="CX68" s="1">
+        <v>98</v>
+      </c>
+      <c r="CY68" s="1">
+        <v>99</v>
+      </c>
+      <c r="CZ68" s="1">
+        <v>100</v>
+      </c>
+      <c r="DA68" s="1">
+        <v>101</v>
+      </c>
+      <c r="DB68" s="1">
+        <v>102</v>
+      </c>
+      <c r="DC68" s="1">
+        <v>103</v>
+      </c>
+      <c r="DD68" s="1">
+        <v>104</v>
+      </c>
+      <c r="DE68" s="1">
+        <v>105</v>
+      </c>
+      <c r="DF68" s="1">
+        <v>106</v>
+      </c>
+      <c r="DG68" s="1">
+        <v>107</v>
+      </c>
+      <c r="DH68" s="1">
+        <v>108</v>
+      </c>
+      <c r="DI68" s="1">
+        <v>109</v>
+      </c>
+      <c r="DJ68" s="1">
+        <v>110</v>
+      </c>
+      <c r="DK68" s="1">
+        <v>111</v>
+      </c>
+      <c r="DL68" s="1">
+        <v>112</v>
+      </c>
+      <c r="DM68" s="1">
+        <v>113</v>
+      </c>
+      <c r="DN68" s="1">
+        <v>114</v>
+      </c>
+      <c r="DO68" s="1">
+        <v>115</v>
+      </c>
+      <c r="DP68" s="1">
+        <v>116</v>
+      </c>
+      <c r="DQ68" s="1">
+        <v>117</v>
+      </c>
+      <c r="DR68" s="1">
+        <v>118</v>
+      </c>
+      <c r="DS68" s="1">
+        <v>119</v>
+      </c>
+      <c r="DT68" s="1">
+        <v>120</v>
+      </c>
+      <c r="DU68" s="1">
+        <v>121</v>
+      </c>
+      <c r="DV68" s="1">
+        <v>122</v>
+      </c>
+      <c r="DW68" s="1">
+        <v>123</v>
+      </c>
+      <c r="DX68" s="1">
+        <v>124</v>
+      </c>
+      <c r="DY68" s="1">
+        <v>125</v>
+      </c>
+      <c r="DZ68" s="1">
+        <v>126</v>
+      </c>
+      <c r="EA68" s="1">
+        <v>127</v>
+      </c>
+      <c r="EB68" s="1">
+        <v>128</v>
+      </c>
+      <c r="EC68" s="1">
+        <v>129</v>
+      </c>
+      <c r="ED68" s="1">
+        <v>130</v>
+      </c>
+      <c r="EE68" s="1">
+        <v>131</v>
+      </c>
+      <c r="EF68" s="1">
+        <v>132</v>
+      </c>
     </row>
-    <row r="67" spans="1:136">
-      <c r="D67" s="1">
+    <row r="69" spans="1:137">
+      <c r="A69" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E67" s="1">
-        <v>1</v>
-      </c>
-      <c r="F67" s="1">
-        <v>2</v>
-      </c>
-      <c r="G67" s="1">
-        <v>3</v>
-      </c>
-      <c r="H67" s="1">
-        <v>4</v>
-      </c>
-      <c r="I67" s="1">
-        <v>5</v>
-      </c>
-      <c r="J67" s="1">
-        <v>6</v>
-      </c>
-      <c r="K67" s="1">
-        <v>7</v>
-      </c>
-      <c r="L67" s="1">
-        <v>8</v>
-      </c>
-      <c r="M67" s="1">
-        <v>9</v>
-      </c>
-      <c r="N67" s="1">
-        <v>10</v>
-      </c>
-      <c r="O67" s="1">
-        <v>11</v>
-      </c>
-      <c r="P67" s="1">
-        <v>12</v>
-      </c>
-      <c r="Q67" s="1">
-        <v>13</v>
-      </c>
-      <c r="R67" s="1">
-        <v>14</v>
-      </c>
-      <c r="S67" s="1">
+      <c r="B69" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="T67" s="1">
-        <v>16</v>
-      </c>
-      <c r="U67" s="1">
-        <v>17</v>
-      </c>
-      <c r="V67" s="1">
-        <v>18</v>
-      </c>
-      <c r="W67" s="1">
-        <v>19</v>
-      </c>
-      <c r="X67" s="1">
-        <v>20</v>
-      </c>
-      <c r="Y67" s="1">
-        <v>21</v>
-      </c>
-      <c r="Z67" s="1">
-        <v>22</v>
-      </c>
-      <c r="AA67" s="1">
-        <v>23</v>
-      </c>
-      <c r="AB67" s="1">
-        <v>24</v>
-      </c>
-      <c r="AC67" s="1">
-        <v>25</v>
-      </c>
-      <c r="AD67" s="1">
-        <v>26</v>
-      </c>
-      <c r="AE67" s="1">
-        <v>27</v>
-      </c>
-      <c r="AF67" s="1">
-        <v>28</v>
-      </c>
-      <c r="AG67" s="1">
-        <v>29</v>
-      </c>
-      <c r="AH67" s="1">
-        <v>30</v>
-      </c>
-      <c r="AI67" s="1">
-        <v>31</v>
-      </c>
-      <c r="AJ67" s="1">
-        <v>32</v>
-      </c>
-      <c r="AK67" s="1">
-        <v>33</v>
-      </c>
-      <c r="AL67" s="1">
-        <v>34</v>
-      </c>
-      <c r="AM67" s="1">
-        <v>35</v>
-      </c>
-      <c r="AN67" s="1">
-        <v>36</v>
-      </c>
-      <c r="AO67" s="1">
-        <v>37</v>
-      </c>
-      <c r="AP67" s="1">
-        <v>38</v>
-      </c>
-      <c r="AQ67" s="1">
-        <v>39</v>
-      </c>
-      <c r="AR67" s="1">
-        <v>40</v>
-      </c>
-      <c r="AS67" s="1">
-        <v>41</v>
-      </c>
-      <c r="AT67" s="1">
-        <v>42</v>
-      </c>
-      <c r="AU67" s="1">
-        <v>43</v>
-      </c>
-      <c r="AV67" s="1">
-        <v>44</v>
-      </c>
-      <c r="AW67" s="1">
-        <v>45</v>
-      </c>
-      <c r="AX67" s="1">
-        <v>46</v>
-      </c>
-      <c r="AY67" s="1">
-        <v>47</v>
-      </c>
-      <c r="AZ67" s="1">
-        <v>48</v>
-      </c>
-      <c r="BA67" s="1">
-        <v>49</v>
-      </c>
-      <c r="BB67" s="1">
-        <v>50</v>
-      </c>
-      <c r="BC67" s="1">
-        <v>51</v>
-      </c>
-      <c r="BD67" s="1">
-        <v>52</v>
-      </c>
-      <c r="BE67" s="1">
-        <v>53</v>
-      </c>
-      <c r="BF67" s="1">
-        <v>54</v>
-      </c>
-      <c r="BG67" s="1">
-        <v>55</v>
-      </c>
-      <c r="BH67" s="1">
-        <v>56</v>
-      </c>
-      <c r="BI67" s="1">
-        <v>57</v>
-      </c>
-      <c r="BJ67" s="1">
-        <v>58</v>
-      </c>
-      <c r="BK67" s="1">
-        <v>59</v>
-      </c>
-      <c r="BL67" s="1">
-        <v>60</v>
-      </c>
-      <c r="BM67" s="1">
-        <v>61</v>
-      </c>
-      <c r="BN67" s="1">
-        <v>62</v>
-      </c>
-      <c r="BO67" s="1">
-        <v>63</v>
-      </c>
-      <c r="BP67" s="1">
-        <v>64</v>
-      </c>
-      <c r="BQ67" s="1">
-        <v>65</v>
-      </c>
-      <c r="BR67" s="1">
-        <v>66</v>
-      </c>
-      <c r="BS67" s="1">
-        <v>67</v>
-      </c>
-      <c r="BT67" s="1">
-        <v>68</v>
-      </c>
-      <c r="BU67" s="1">
-        <v>69</v>
-      </c>
-      <c r="BV67" s="1">
-        <v>70</v>
-      </c>
-      <c r="BW67" s="1">
-        <v>71</v>
-      </c>
-      <c r="BX67" s="1">
-        <v>72</v>
-      </c>
-      <c r="BY67" s="1">
-        <v>73</v>
-      </c>
-      <c r="BZ67" s="1">
-        <v>74</v>
-      </c>
-      <c r="CA67" s="1">
-        <v>75</v>
-      </c>
-      <c r="CB67" s="1">
-        <v>76</v>
-      </c>
-      <c r="CC67" s="1">
-        <v>77</v>
-      </c>
-      <c r="CD67" s="1">
-        <v>78</v>
-      </c>
-      <c r="CE67" s="1">
-        <v>79</v>
-      </c>
-      <c r="CF67" s="1">
-        <v>80</v>
-      </c>
-      <c r="CG67" s="1">
-        <v>81</v>
-      </c>
-      <c r="CH67" s="1">
-        <v>82</v>
-      </c>
-      <c r="CI67" s="1">
-        <v>83</v>
-      </c>
-      <c r="CJ67" s="1">
-        <v>84</v>
-      </c>
-      <c r="CK67" s="1">
-        <v>85</v>
-      </c>
-      <c r="CL67" s="1">
-        <v>86</v>
-      </c>
-      <c r="CM67" s="1">
-        <v>87</v>
-      </c>
-      <c r="CN67" s="1">
-        <v>88</v>
-      </c>
-      <c r="CO67" s="1">
-        <v>89</v>
-      </c>
-      <c r="CP67" s="1">
-        <v>90</v>
-      </c>
-      <c r="CQ67" s="1">
-        <v>91</v>
-      </c>
-      <c r="CR67" s="1">
-        <v>92</v>
-      </c>
-      <c r="CS67" s="1">
-        <v>93</v>
-      </c>
-      <c r="CT67" s="1">
-        <v>94</v>
-      </c>
-      <c r="CU67" s="1">
-        <v>95</v>
-      </c>
-      <c r="CV67" s="1">
-        <v>96</v>
-      </c>
-      <c r="CW67" s="1">
-        <v>97</v>
-      </c>
-      <c r="CX67" s="1">
-        <v>98</v>
-      </c>
-      <c r="CY67" s="1">
-        <v>99</v>
-      </c>
-      <c r="CZ67" s="1">
-        <v>100</v>
-      </c>
-      <c r="DA67" s="1">
-        <v>101</v>
-      </c>
-      <c r="DB67" s="1">
-        <v>102</v>
-      </c>
-      <c r="DC67" s="1">
-        <v>103</v>
-      </c>
-      <c r="DD67" s="1">
-        <v>104</v>
-      </c>
-      <c r="DE67" s="1">
-        <v>105</v>
-      </c>
-      <c r="DF67" s="1">
-        <v>106</v>
-      </c>
-      <c r="DG67" s="1">
-        <v>107</v>
-      </c>
-      <c r="DH67" s="1">
-        <v>108</v>
-      </c>
-      <c r="DI67" s="1">
-        <v>109</v>
-      </c>
-      <c r="DJ67" s="1">
-        <v>110</v>
-      </c>
-      <c r="DK67" s="1">
-        <v>111</v>
-      </c>
-      <c r="DL67" s="1">
-        <v>112</v>
-      </c>
-      <c r="DM67" s="1">
-        <v>113</v>
-      </c>
-      <c r="DN67" s="1">
-        <v>114</v>
-      </c>
-      <c r="DO67" s="1">
-        <v>115</v>
-      </c>
-      <c r="DP67" s="1">
-        <v>116</v>
-      </c>
-      <c r="DQ67" s="1">
-        <v>117</v>
-      </c>
-      <c r="DR67" s="1">
-        <v>118</v>
-      </c>
-      <c r="DS67" s="1">
-        <v>119</v>
-      </c>
-      <c r="DT67" s="1">
-        <v>120</v>
-      </c>
-      <c r="DU67" s="1">
-        <v>121</v>
-      </c>
-      <c r="DV67" s="1">
-        <v>122</v>
-      </c>
-      <c r="DW67" s="1">
-        <v>123</v>
-      </c>
-      <c r="DX67" s="1">
-        <v>124</v>
-      </c>
-      <c r="DY67" s="1">
-        <v>125</v>
-      </c>
-      <c r="DZ67" s="1">
-        <v>126</v>
-      </c>
-      <c r="EA67" s="1">
-        <v>127</v>
-      </c>
-      <c r="EB67" s="1">
-        <v>128</v>
-      </c>
-      <c r="EC67" s="1">
-        <v>129</v>
-      </c>
-      <c r="ED67" s="1">
-        <v>130</v>
-      </c>
-      <c r="EE67" s="1">
-        <v>131</v>
-      </c>
-      <c r="EF67" s="1">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="68" spans="1:136">
-      <c r="A68" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D68"/>
-      <c r="E68"/>
-      <c r="F68" s="4">
-        <v>1</v>
-      </c>
-      <c r="G68" s="2">
-        <v>1</v>
-      </c>
-      <c r="H68" s="2">
-        <v>1</v>
-      </c>
-      <c r="I68" s="3">
-        <v>1</v>
-      </c>
-      <c r="J68" s="3"/>
-      <c r="K68" s="4">
-        <v>1</v>
-      </c>
-      <c r="L68"/>
-      <c r="M68"/>
-      <c r="N68"/>
-      <c r="O68"/>
-      <c r="P68"/>
-      <c r="Q68"/>
-      <c r="R68"/>
-      <c r="S68"/>
-      <c r="T68"/>
-      <c r="U68"/>
-      <c r="V68"/>
-      <c r="W68"/>
-      <c r="X68"/>
-      <c r="Y68"/>
-      <c r="Z68"/>
-      <c r="AA68"/>
-      <c r="AB68"/>
-      <c r="AC68"/>
-      <c r="AD68"/>
-      <c r="AE68"/>
-      <c r="AF68"/>
-      <c r="AG68"/>
-      <c r="AH68"/>
-      <c r="AI68"/>
-      <c r="AJ68" s="4">
-        <v>1</v>
-      </c>
-      <c r="AK68" s="2">
-        <v>1</v>
-      </c>
-      <c r="AL68" s="2"/>
-      <c r="AM68" s="3">
-        <v>1</v>
-      </c>
-      <c r="AN68" s="3"/>
-      <c r="AO68" s="4">
-        <v>1</v>
-      </c>
-      <c r="AP68"/>
-      <c r="AQ68"/>
-      <c r="AR68"/>
-      <c r="BN68" s="4">
-        <v>1</v>
-      </c>
-      <c r="BO68" s="2">
-        <v>1</v>
-      </c>
-      <c r="BP68" s="2"/>
-      <c r="BQ68" s="3">
-        <v>1</v>
-      </c>
-      <c r="BR68" s="3"/>
-      <c r="BS68" s="4">
-        <v>1</v>
-      </c>
-      <c r="CR68" s="4">
-        <v>1</v>
-      </c>
-      <c r="CS68" s="2">
-        <v>1</v>
-      </c>
-      <c r="CT68" s="2"/>
-      <c r="CU68" s="3">
-        <v>1</v>
-      </c>
-      <c r="CV68" s="3"/>
-      <c r="CW68" s="4">
-        <v>1</v>
-      </c>
-      <c r="DV68" s="4">
-        <v>1</v>
-      </c>
-      <c r="DW68" s="2">
-        <v>1</v>
-      </c>
-      <c r="DX68" s="2"/>
-      <c r="DY68" s="3">
-        <v>1</v>
-      </c>
-      <c r="DZ68" s="3"/>
-      <c r="EA68" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:136">
-      <c r="A69" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D69" s="4">
-        <v>2</v>
-      </c>
-      <c r="E69" s="3">
-        <v>2</v>
-      </c>
-      <c r="F69" s="3">
-        <v>2</v>
-      </c>
-      <c r="G69" s="3">
-        <v>2</v>
+      <c r="D69"/>
+      <c r="E69"/>
+      <c r="F69" s="4">
+        <v>1</v>
+      </c>
+      <c r="G69" s="2">
+        <v>1</v>
       </c>
       <c r="H69" s="2">
-        <v>2</v>
-      </c>
-      <c r="I69" s="2">
-        <v>2</v>
-      </c>
-      <c r="J69" s="4">
-        <v>2</v>
-      </c>
-      <c r="K69"/>
+        <v>1</v>
+      </c>
+      <c r="I69" s="3">
+        <v>1</v>
+      </c>
+      <c r="J69" s="3"/>
+      <c r="K69" s="4">
+        <v>1</v>
+      </c>
       <c r="L69"/>
       <c r="M69"/>
       <c r="N69"/>
@@ -8413,57 +8833,94 @@
       <c r="AG69"/>
       <c r="AH69"/>
       <c r="AI69"/>
-      <c r="AJ69"/>
-      <c r="AK69"/>
-      <c r="AL69"/>
-      <c r="AM69"/>
-      <c r="AN69"/>
-      <c r="AO69"/>
+      <c r="AJ69" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK69" s="2">
+        <v>1</v>
+      </c>
+      <c r="AL69" s="2"/>
+      <c r="AM69" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN69" s="3"/>
+      <c r="AO69" s="4">
+        <v>1</v>
+      </c>
       <c r="AP69"/>
       <c r="AQ69"/>
       <c r="AR69"/>
-      <c r="BL69" s="4">
-        <v>2</v>
-      </c>
-      <c r="BM69" s="3"/>
-      <c r="BN69" s="3">
-        <v>2</v>
-      </c>
-      <c r="BO69" s="3"/>
-      <c r="BP69" s="2">
-        <v>2</v>
-      </c>
-      <c r="BQ69" s="2"/>
-      <c r="BR69" s="4">
-        <v>2</v>
-      </c>
-      <c r="DT69" s="4">
-        <v>2</v>
-      </c>
-      <c r="DU69" s="3"/>
-      <c r="DV69" s="3">
-        <v>2</v>
-      </c>
-      <c r="DW69" s="3"/>
-      <c r="DX69" s="2">
-        <v>2</v>
-      </c>
-      <c r="DY69" s="2"/>
-      <c r="DZ69" s="4">
-        <v>2</v>
+      <c r="BN69" s="4">
+        <v>1</v>
+      </c>
+      <c r="BO69" s="2">
+        <v>1</v>
+      </c>
+      <c r="BP69" s="2"/>
+      <c r="BQ69" s="3">
+        <v>1</v>
+      </c>
+      <c r="BR69" s="3"/>
+      <c r="BS69" s="4">
+        <v>1</v>
+      </c>
+      <c r="CR69" s="4">
+        <v>1</v>
+      </c>
+      <c r="CS69" s="2">
+        <v>1</v>
+      </c>
+      <c r="CT69" s="2"/>
+      <c r="CU69" s="3">
+        <v>1</v>
+      </c>
+      <c r="CV69" s="3"/>
+      <c r="CW69" s="4">
+        <v>1</v>
+      </c>
+      <c r="DV69" s="4">
+        <v>1</v>
+      </c>
+      <c r="DW69" s="2">
+        <v>1</v>
+      </c>
+      <c r="DX69" s="2"/>
+      <c r="DY69" s="3">
+        <v>1</v>
+      </c>
+      <c r="DZ69" s="3"/>
+      <c r="EA69" s="4">
+        <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:136">
-      <c r="A70" t="s">
-        <v>36</v>
-      </c>
-      <c r="D70"/>
-      <c r="E70"/>
-      <c r="F70"/>
-      <c r="G70"/>
-      <c r="H70"/>
-      <c r="I70"/>
-      <c r="J70"/>
+    <row r="70" spans="1:137">
+      <c r="A70" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D70" s="4">
+        <v>2</v>
+      </c>
+      <c r="E70" s="3">
+        <v>2</v>
+      </c>
+      <c r="F70" s="3">
+        <v>2</v>
+      </c>
+      <c r="G70" s="3">
+        <v>2</v>
+      </c>
+      <c r="H70" s="2">
+        <v>2</v>
+      </c>
+      <c r="I70" s="2">
+        <v>2</v>
+      </c>
+      <c r="J70" s="4">
+        <v>2</v>
+      </c>
       <c r="K70"/>
       <c r="L70"/>
       <c r="M70"/>
@@ -8498,851 +8955,1213 @@
       <c r="AP70"/>
       <c r="AQ70"/>
       <c r="AR70"/>
+      <c r="BL70" s="4">
+        <v>2</v>
+      </c>
+      <c r="BM70" s="3"/>
+      <c r="BN70" s="3">
+        <v>2</v>
+      </c>
+      <c r="BO70" s="3"/>
+      <c r="BP70" s="2">
+        <v>2</v>
+      </c>
+      <c r="BQ70" s="2"/>
+      <c r="BR70" s="4">
+        <v>2</v>
+      </c>
+      <c r="DT70" s="4">
+        <v>2</v>
+      </c>
+      <c r="DU70" s="3"/>
+      <c r="DV70" s="3">
+        <v>2</v>
+      </c>
+      <c r="DW70" s="3"/>
+      <c r="DX70" s="2">
+        <v>2</v>
+      </c>
+      <c r="DY70" s="2"/>
+      <c r="DZ70" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="71" spans="1:136">
+    <row r="71" spans="1:137">
       <c r="A71" t="s">
+        <v>36</v>
+      </c>
+      <c r="D71"/>
+      <c r="E71"/>
+      <c r="F71"/>
+      <c r="G71"/>
+      <c r="H71"/>
+      <c r="I71"/>
+      <c r="J71"/>
+      <c r="K71"/>
+      <c r="L71"/>
+      <c r="M71"/>
+      <c r="N71"/>
+      <c r="O71"/>
+      <c r="P71"/>
+      <c r="Q71"/>
+      <c r="R71"/>
+      <c r="S71"/>
+      <c r="T71"/>
+      <c r="U71"/>
+      <c r="V71"/>
+      <c r="W71"/>
+      <c r="X71"/>
+      <c r="Y71"/>
+      <c r="Z71"/>
+      <c r="AA71"/>
+      <c r="AB71"/>
+      <c r="AC71"/>
+      <c r="AD71"/>
+      <c r="AE71"/>
+      <c r="AF71"/>
+      <c r="AG71"/>
+      <c r="AH71"/>
+      <c r="AI71"/>
+      <c r="AJ71"/>
+      <c r="AK71"/>
+      <c r="AL71"/>
+      <c r="AM71"/>
+      <c r="AN71"/>
+      <c r="AO71"/>
+      <c r="AP71"/>
+      <c r="AQ71"/>
+      <c r="AR71"/>
+    </row>
+    <row r="72" spans="1:137">
+      <c r="A72" t="s">
         <v>28</v>
       </c>
-      <c r="D71" s="4">
-        <v>2</v>
-      </c>
-      <c r="E71" s="3">
-        <v>2</v>
-      </c>
-      <c r="F71" s="4">
-        <v>1</v>
-      </c>
-      <c r="G71" s="2">
-        <v>1</v>
-      </c>
-      <c r="H71" s="2">
-        <v>1</v>
-      </c>
-      <c r="I71" s="3">
-        <v>1</v>
-      </c>
-      <c r="J71" s="3"/>
-      <c r="K71" s="4">
-        <v>1</v>
-      </c>
-      <c r="L71" s="3">
-        <v>2</v>
-      </c>
-      <c r="M71" s="3">
-        <v>2</v>
-      </c>
-      <c r="N71" s="2">
-        <v>2</v>
-      </c>
-      <c r="O71" s="2">
-        <v>2</v>
-      </c>
-      <c r="P71" s="4">
-        <v>2</v>
-      </c>
-      <c r="Q71" s="11"/>
-      <c r="R71" s="11"/>
-      <c r="S71" s="11"/>
-      <c r="T71" s="11"/>
-      <c r="U71" s="11"/>
-      <c r="V71" s="11"/>
-      <c r="W71" s="11"/>
-      <c r="X71" s="11"/>
-      <c r="Y71" s="11"/>
-      <c r="Z71" s="11"/>
-      <c r="AA71" s="11"/>
-      <c r="AB71" s="11"/>
-      <c r="AC71" s="11"/>
-      <c r="AD71" s="11"/>
-      <c r="AE71" s="11"/>
-      <c r="AF71" s="11"/>
-      <c r="AG71" s="11"/>
-      <c r="AH71" s="11"/>
-      <c r="AI71" s="11"/>
-      <c r="AJ71" s="4">
-        <v>1</v>
-      </c>
-      <c r="AK71" s="2">
-        <v>1</v>
-      </c>
-      <c r="AL71" s="2"/>
-      <c r="AM71" s="3">
-        <v>1</v>
-      </c>
-      <c r="AN71" s="3"/>
-      <c r="AO71" s="4">
-        <v>1</v>
-      </c>
-      <c r="AP71" s="11"/>
-      <c r="AQ71" s="11"/>
-      <c r="AR71" s="11"/>
-      <c r="AS71" s="11"/>
-      <c r="AT71" s="11"/>
-      <c r="AU71" s="11"/>
-      <c r="AV71" s="11"/>
-      <c r="AW71" s="11"/>
-      <c r="AX71" s="11"/>
-      <c r="AY71" s="11"/>
-      <c r="AZ71" s="11"/>
-      <c r="BA71" s="11"/>
-      <c r="BB71" s="11"/>
-      <c r="BC71" s="11"/>
-      <c r="BD71" s="11"/>
-      <c r="BE71" s="11"/>
-      <c r="BF71" s="11"/>
-      <c r="BG71" s="11"/>
-      <c r="BH71" s="11"/>
-      <c r="BI71" s="11"/>
-      <c r="BJ71" s="11"/>
-      <c r="BK71" s="11"/>
-      <c r="BL71" s="4">
-        <v>2</v>
-      </c>
-      <c r="BM71" s="3">
-        <v>2</v>
-      </c>
-      <c r="BN71" s="4">
-        <v>1</v>
-      </c>
-      <c r="BO71" s="2">
-        <v>1</v>
-      </c>
-      <c r="BP71" s="2">
-        <v>1</v>
-      </c>
-      <c r="BQ71" s="3">
-        <v>1</v>
-      </c>
-      <c r="BR71" s="3"/>
-      <c r="BS71" s="4">
-        <v>1</v>
-      </c>
-      <c r="BT71" s="3">
-        <v>2</v>
-      </c>
-      <c r="BU71" s="3">
-        <v>2</v>
-      </c>
-      <c r="BV71" s="2">
-        <v>2</v>
-      </c>
-      <c r="BW71" s="2">
-        <v>2</v>
-      </c>
-      <c r="BX71" s="4">
-        <v>2</v>
-      </c>
-      <c r="BY71" s="11"/>
-      <c r="BZ71" s="11"/>
-      <c r="CA71" s="11"/>
-      <c r="CB71" s="11"/>
-      <c r="CC71" s="11"/>
-      <c r="CD71" s="11"/>
-      <c r="CE71" s="11"/>
-      <c r="CF71" s="11"/>
-      <c r="CG71" s="11"/>
-      <c r="CH71" s="11"/>
-      <c r="CI71" s="11"/>
-      <c r="CJ71" s="11"/>
-      <c r="CK71" s="11"/>
-      <c r="CL71" s="11"/>
-      <c r="CM71" s="11"/>
-      <c r="CN71" s="11"/>
-      <c r="CO71" s="11"/>
-      <c r="CP71" s="11"/>
-      <c r="CQ71" s="11"/>
-      <c r="CR71" s="4">
-        <v>1</v>
-      </c>
-      <c r="CS71" s="2">
-        <v>1</v>
-      </c>
-      <c r="CT71" s="2"/>
-      <c r="CU71" s="3">
-        <v>1</v>
-      </c>
-      <c r="CV71" s="3"/>
-      <c r="CW71" s="4">
-        <v>1</v>
-      </c>
-      <c r="CX71" s="11"/>
-      <c r="CY71" s="11"/>
-      <c r="CZ71" s="11"/>
-      <c r="DA71" s="11"/>
-      <c r="DB71" s="11"/>
-      <c r="DC71" s="11"/>
-      <c r="DD71" s="11"/>
-      <c r="DE71" s="11"/>
-      <c r="DF71" s="11"/>
-      <c r="DG71" s="11"/>
-      <c r="DH71" s="11"/>
-      <c r="DI71" s="11"/>
-      <c r="DJ71" s="11"/>
-      <c r="DK71" s="11"/>
-      <c r="DL71" s="11"/>
-      <c r="DM71" s="11"/>
-      <c r="DN71" s="11"/>
-      <c r="DO71" s="11"/>
-      <c r="DP71" s="11"/>
-      <c r="DQ71" s="11"/>
-      <c r="DR71" s="11"/>
-      <c r="DS71" s="11"/>
-      <c r="DT71" s="4">
-        <v>2</v>
-      </c>
-      <c r="DU71" s="3">
-        <v>2</v>
-      </c>
-      <c r="DV71" s="4">
-        <v>1</v>
-      </c>
-      <c r="DW71" s="2">
-        <v>1</v>
-      </c>
-      <c r="DX71" s="2">
-        <v>1</v>
-      </c>
-      <c r="DY71" s="3">
-        <v>1</v>
-      </c>
-      <c r="DZ71" s="3"/>
-      <c r="EA71" s="4">
-        <v>1</v>
-      </c>
-      <c r="EB71" s="3">
-        <v>2</v>
-      </c>
-      <c r="EC71" s="3">
-        <v>2</v>
-      </c>
-      <c r="ED71" s="2">
-        <v>2</v>
-      </c>
-      <c r="EE71" s="2">
-        <v>2</v>
-      </c>
-      <c r="EF71" s="4">
+      <c r="D72" s="4">
+        <v>2</v>
+      </c>
+      <c r="E72" s="3">
+        <v>2</v>
+      </c>
+      <c r="F72" s="3">
+        <v>2</v>
+      </c>
+      <c r="G72" s="3">
+        <v>2</v>
+      </c>
+      <c r="H72" s="2">
+        <v>2</v>
+      </c>
+      <c r="I72" s="2">
+        <v>2</v>
+      </c>
+      <c r="J72" s="4">
+        <v>1</v>
+      </c>
+      <c r="K72" s="2">
+        <v>1</v>
+      </c>
+      <c r="L72" s="2">
+        <v>1</v>
+      </c>
+      <c r="M72" s="3">
+        <v>1</v>
+      </c>
+      <c r="N72" s="3"/>
+      <c r="O72" s="4">
+        <v>1</v>
+      </c>
+      <c r="P72" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q72" s="11"/>
+      <c r="R72" s="11"/>
+      <c r="S72" s="11"/>
+      <c r="T72" s="11"/>
+      <c r="U72" s="11"/>
+      <c r="V72" s="11"/>
+      <c r="W72" s="11"/>
+      <c r="X72" s="11"/>
+      <c r="Y72" s="11"/>
+      <c r="Z72" s="11"/>
+      <c r="AA72" s="11"/>
+      <c r="AB72" s="11"/>
+      <c r="AC72" s="11"/>
+      <c r="AD72" s="11"/>
+      <c r="AE72" s="11"/>
+      <c r="AF72" s="11"/>
+      <c r="AG72" s="11"/>
+      <c r="AH72" s="11"/>
+      <c r="AI72" s="11"/>
+      <c r="AJ72" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK72" s="2">
+        <v>1</v>
+      </c>
+      <c r="AL72" s="2"/>
+      <c r="AM72" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN72" s="3"/>
+      <c r="AO72" s="4">
+        <v>1</v>
+      </c>
+      <c r="AP72" s="11"/>
+      <c r="AQ72" s="11"/>
+      <c r="AR72" s="11"/>
+      <c r="AS72" s="11"/>
+      <c r="AT72" s="11"/>
+      <c r="AU72" s="11"/>
+      <c r="AV72" s="11"/>
+      <c r="AW72" s="11"/>
+      <c r="AX72" s="11"/>
+      <c r="AY72" s="11"/>
+      <c r="AZ72" s="11"/>
+      <c r="BA72" s="11"/>
+      <c r="BB72" s="11"/>
+      <c r="BC72" s="11"/>
+      <c r="BD72" s="11"/>
+      <c r="BE72" s="11"/>
+      <c r="BF72" s="11"/>
+      <c r="BG72" s="11"/>
+      <c r="BH72" s="11"/>
+      <c r="BI72" s="11"/>
+      <c r="BJ72" s="11"/>
+      <c r="BK72" s="11"/>
+      <c r="BL72" s="4">
+        <v>2</v>
+      </c>
+      <c r="BM72" s="3">
+        <v>2</v>
+      </c>
+      <c r="BN72" s="3">
+        <v>2</v>
+      </c>
+      <c r="BO72" s="3">
+        <v>2</v>
+      </c>
+      <c r="BP72" s="2">
+        <v>2</v>
+      </c>
+      <c r="BQ72" s="2">
+        <v>2</v>
+      </c>
+      <c r="BR72" s="4">
+        <v>1</v>
+      </c>
+      <c r="BS72" s="2">
+        <v>1</v>
+      </c>
+      <c r="BT72" s="2">
+        <v>1</v>
+      </c>
+      <c r="BU72" s="3">
+        <v>1</v>
+      </c>
+      <c r="BV72" s="3"/>
+      <c r="BW72" s="4">
+        <v>1</v>
+      </c>
+      <c r="BX72" s="4">
+        <v>2</v>
+      </c>
+      <c r="BY72" s="11"/>
+      <c r="BZ72" s="11"/>
+      <c r="CA72" s="11"/>
+      <c r="CB72" s="11"/>
+      <c r="CC72" s="11"/>
+      <c r="CD72" s="11"/>
+      <c r="CE72" s="11"/>
+      <c r="CF72" s="11"/>
+      <c r="CG72" s="11"/>
+      <c r="CH72" s="11"/>
+      <c r="CI72" s="11"/>
+      <c r="CJ72" s="11"/>
+      <c r="CK72" s="11"/>
+      <c r="CL72" s="11"/>
+      <c r="CM72" s="11"/>
+      <c r="CN72" s="11"/>
+      <c r="CO72" s="11"/>
+      <c r="CP72" s="11"/>
+      <c r="CQ72" s="11"/>
+      <c r="CR72" s="4">
+        <v>1</v>
+      </c>
+      <c r="CS72" s="2">
+        <v>1</v>
+      </c>
+      <c r="CT72" s="2"/>
+      <c r="CU72" s="3">
+        <v>1</v>
+      </c>
+      <c r="CV72" s="3"/>
+      <c r="CW72" s="4">
+        <v>1</v>
+      </c>
+      <c r="CX72" s="11"/>
+      <c r="CY72" s="11"/>
+      <c r="CZ72" s="11"/>
+      <c r="DA72" s="11"/>
+      <c r="DB72" s="11"/>
+      <c r="DC72" s="11"/>
+      <c r="DD72" s="11"/>
+      <c r="DE72" s="11"/>
+      <c r="DF72" s="11"/>
+      <c r="DG72" s="11"/>
+      <c r="DH72" s="11"/>
+      <c r="DI72" s="11"/>
+      <c r="DJ72" s="11"/>
+      <c r="DK72" s="11"/>
+      <c r="DL72" s="11"/>
+      <c r="DM72" s="11"/>
+      <c r="DN72" s="11"/>
+      <c r="DO72" s="11"/>
+      <c r="DP72" s="11"/>
+      <c r="DQ72" s="11"/>
+      <c r="DR72" s="11"/>
+      <c r="DS72" s="11"/>
+      <c r="DT72" s="4">
+        <v>2</v>
+      </c>
+      <c r="DU72" s="3">
+        <v>2</v>
+      </c>
+      <c r="DV72" s="3">
+        <v>2</v>
+      </c>
+      <c r="DW72" s="3">
+        <v>2</v>
+      </c>
+      <c r="DX72" s="2">
+        <v>2</v>
+      </c>
+      <c r="DY72" s="2">
+        <v>2</v>
+      </c>
+      <c r="DZ72" s="4">
+        <v>1</v>
+      </c>
+      <c r="EA72" s="2">
+        <v>1</v>
+      </c>
+      <c r="EB72" s="2">
+        <v>1</v>
+      </c>
+      <c r="EC72" s="3">
+        <v>1</v>
+      </c>
+      <c r="ED72" s="3"/>
+      <c r="EE72" s="4">
+        <v>1</v>
+      </c>
+      <c r="EF72" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:136">
-      <c r="A72" t="s">
+    <row r="73" spans="1:137">
+      <c r="A73" t="s">
+        <v>96</v>
+      </c>
+      <c r="D73" s="1">
+        <v>0</v>
+      </c>
+      <c r="E73" s="1">
+        <v>1</v>
+      </c>
+      <c r="F73" s="1">
+        <v>2</v>
+      </c>
+      <c r="G73" s="1">
+        <v>3</v>
+      </c>
+      <c r="H73" s="1">
+        <v>4</v>
+      </c>
+      <c r="I73" s="1">
+        <v>5</v>
+      </c>
+      <c r="J73" s="1">
+        <v>6</v>
+      </c>
+      <c r="K73" s="1">
+        <v>7</v>
+      </c>
+      <c r="L73" s="1">
+        <v>8</v>
+      </c>
+      <c r="M73" s="1">
+        <v>9</v>
+      </c>
+      <c r="N73" s="1">
+        <v>10</v>
+      </c>
+      <c r="O73" s="1">
+        <v>11</v>
+      </c>
+      <c r="P73" s="1">
+        <v>12</v>
+      </c>
+      <c r="Q73" s="1">
+        <v>13</v>
+      </c>
+      <c r="R73" s="1">
+        <v>14</v>
+      </c>
+      <c r="S73" s="1">
+        <v>15</v>
+      </c>
+      <c r="T73" s="1">
+        <v>16</v>
+      </c>
+      <c r="U73" s="1">
+        <v>17</v>
+      </c>
+      <c r="V73" s="1">
+        <v>18</v>
+      </c>
+      <c r="W73" s="1">
+        <v>19</v>
+      </c>
+      <c r="X73" s="1">
+        <v>20</v>
+      </c>
+      <c r="Y73" s="1">
+        <v>21</v>
+      </c>
+      <c r="Z73" s="1">
+        <v>22</v>
+      </c>
+      <c r="AA73" s="1">
+        <v>23</v>
+      </c>
+      <c r="AB73" s="1">
+        <v>24</v>
+      </c>
+      <c r="AC73" s="1">
+        <v>25</v>
+      </c>
+      <c r="AD73" s="1">
+        <v>26</v>
+      </c>
+      <c r="AE73" s="1">
+        <v>27</v>
+      </c>
+      <c r="AF73" s="1">
+        <v>28</v>
+      </c>
+      <c r="AG73" s="1">
+        <v>29</v>
+      </c>
+      <c r="AH73" s="1">
+        <v>30</v>
+      </c>
+      <c r="AI73" s="1">
+        <v>31</v>
+      </c>
+      <c r="AJ73" s="1">
         <v>32</v>
       </c>
-      <c r="D72" s="1">
-        <v>0</v>
-      </c>
-      <c r="E72" s="1">
-        <v>1</v>
-      </c>
-      <c r="F72" s="1">
-        <v>2</v>
-      </c>
-      <c r="G72" s="1">
+      <c r="AK73" s="1">
+        <v>33</v>
+      </c>
+      <c r="AL73" s="1">
+        <v>34</v>
+      </c>
+      <c r="AM73" s="1">
+        <v>35</v>
+      </c>
+      <c r="AN73" s="1">
+        <v>36</v>
+      </c>
+      <c r="AO73" s="1">
+        <v>37</v>
+      </c>
+      <c r="AP73" s="1">
+        <v>38</v>
+      </c>
+      <c r="AQ73" s="1">
+        <v>39</v>
+      </c>
+      <c r="AR73" s="1">
+        <v>40</v>
+      </c>
+      <c r="AS73" s="1">
+        <v>41</v>
+      </c>
+      <c r="AT73" s="1">
+        <v>42</v>
+      </c>
+      <c r="AU73" s="1">
+        <v>43</v>
+      </c>
+      <c r="AV73" s="1">
+        <v>44</v>
+      </c>
+      <c r="AW73" s="1">
+        <v>45</v>
+      </c>
+      <c r="AX73" s="1">
+        <v>46</v>
+      </c>
+      <c r="AY73" s="1">
+        <v>47</v>
+      </c>
+      <c r="AZ73" s="1">
+        <v>48</v>
+      </c>
+      <c r="BA73" s="1">
+        <v>49</v>
+      </c>
+      <c r="BB73" s="1">
+        <v>50</v>
+      </c>
+      <c r="BC73" s="1">
+        <v>51</v>
+      </c>
+      <c r="BD73" s="1">
+        <v>52</v>
+      </c>
+      <c r="BE73" s="1">
+        <v>53</v>
+      </c>
+      <c r="BF73" s="1">
+        <v>54</v>
+      </c>
+      <c r="BG73" s="1">
+        <v>55</v>
+      </c>
+      <c r="BH73" s="1">
+        <v>56</v>
+      </c>
+      <c r="BI73" s="1">
+        <v>57</v>
+      </c>
+      <c r="BJ73" s="1">
+        <v>58</v>
+      </c>
+      <c r="BK73" s="1">
+        <v>59</v>
+      </c>
+      <c r="BL73" s="1">
+        <v>60</v>
+      </c>
+      <c r="BM73" s="1">
+        <v>61</v>
+      </c>
+      <c r="BN73" s="1">
+        <v>62</v>
+      </c>
+      <c r="BO73" s="1">
+        <v>63</v>
+      </c>
+      <c r="BP73" s="1">
+        <v>64</v>
+      </c>
+      <c r="BQ73" s="1">
+        <v>65</v>
+      </c>
+      <c r="BR73" s="1">
+        <v>66</v>
+      </c>
+      <c r="BS73" s="1">
+        <v>67</v>
+      </c>
+      <c r="BT73" s="1">
+        <v>68</v>
+      </c>
+      <c r="BU73" s="1">
+        <v>69</v>
+      </c>
+      <c r="BV73" s="1">
+        <v>70</v>
+      </c>
+      <c r="BW73" s="1">
+        <v>71</v>
+      </c>
+      <c r="BX73" s="1">
+        <v>72</v>
+      </c>
+      <c r="BY73" s="1">
+        <v>73</v>
+      </c>
+      <c r="BZ73" s="1">
+        <v>74</v>
+      </c>
+      <c r="CA73" s="1">
+        <v>75</v>
+      </c>
+      <c r="CB73" s="1">
+        <v>76</v>
+      </c>
+      <c r="CC73" s="1">
+        <v>77</v>
+      </c>
+      <c r="CD73" s="1">
+        <v>78</v>
+      </c>
+      <c r="CE73" s="1">
+        <v>79</v>
+      </c>
+      <c r="CF73" s="1">
+        <v>80</v>
+      </c>
+      <c r="CG73" s="1">
+        <v>81</v>
+      </c>
+      <c r="CH73" s="1">
+        <v>82</v>
+      </c>
+      <c r="CI73" s="1">
+        <v>83</v>
+      </c>
+      <c r="CJ73" s="1">
+        <v>84</v>
+      </c>
+      <c r="CK73" s="1">
+        <v>85</v>
+      </c>
+      <c r="CL73" s="1">
+        <v>86</v>
+      </c>
+      <c r="CM73" s="1">
+        <v>87</v>
+      </c>
+      <c r="CN73" s="1">
+        <v>88</v>
+      </c>
+      <c r="CO73" s="1">
+        <v>89</v>
+      </c>
+      <c r="CP73" s="1">
+        <v>90</v>
+      </c>
+      <c r="CQ73" s="1">
+        <v>91</v>
+      </c>
+      <c r="CR73" s="1">
+        <v>92</v>
+      </c>
+      <c r="CS73" s="1">
+        <v>93</v>
+      </c>
+      <c r="CT73" s="1">
+        <v>94</v>
+      </c>
+      <c r="CU73" s="1">
+        <v>95</v>
+      </c>
+      <c r="CV73" s="1">
+        <v>96</v>
+      </c>
+      <c r="CW73" s="1">
+        <v>97</v>
+      </c>
+      <c r="CX73" s="1">
+        <v>98</v>
+      </c>
+      <c r="CY73" s="1">
+        <v>99</v>
+      </c>
+      <c r="CZ73" s="1">
+        <v>100</v>
+      </c>
+      <c r="DA73" s="1">
+        <v>101</v>
+      </c>
+      <c r="DB73" s="1">
+        <v>102</v>
+      </c>
+      <c r="DC73" s="1">
+        <v>103</v>
+      </c>
+      <c r="DD73" s="1">
+        <v>104</v>
+      </c>
+      <c r="DE73" s="1">
+        <v>105</v>
+      </c>
+      <c r="DF73" s="1">
+        <v>106</v>
+      </c>
+      <c r="DG73" s="1">
+        <v>107</v>
+      </c>
+      <c r="DH73" s="1">
+        <v>108</v>
+      </c>
+      <c r="DI73" s="1">
+        <v>109</v>
+      </c>
+      <c r="DJ73" s="1">
+        <v>110</v>
+      </c>
+      <c r="DK73" s="1">
+        <v>111</v>
+      </c>
+      <c r="DL73" s="1">
+        <v>112</v>
+      </c>
+      <c r="DM73" s="1">
+        <v>113</v>
+      </c>
+      <c r="DN73" s="1">
+        <v>114</v>
+      </c>
+      <c r="DO73" s="1">
+        <v>115</v>
+      </c>
+      <c r="DP73" s="1">
+        <v>116</v>
+      </c>
+      <c r="DQ73" s="1">
+        <v>117</v>
+      </c>
+      <c r="DR73" s="1">
+        <v>118</v>
+      </c>
+      <c r="DS73" s="1">
+        <v>119</v>
+      </c>
+      <c r="DT73" s="1">
+        <v>120</v>
+      </c>
+      <c r="DU73" s="1">
+        <v>121</v>
+      </c>
+      <c r="DV73" s="1">
+        <v>122</v>
+      </c>
+      <c r="DW73" s="1">
+        <v>123</v>
+      </c>
+      <c r="DX73" s="1">
+        <v>124</v>
+      </c>
+      <c r="DY73" s="1">
+        <v>125</v>
+      </c>
+      <c r="DZ73" s="1">
+        <v>126</v>
+      </c>
+      <c r="EA73" s="1">
+        <v>127</v>
+      </c>
+      <c r="EB73" s="1">
+        <v>128</v>
+      </c>
+      <c r="EC73" s="1">
+        <v>129</v>
+      </c>
+      <c r="ED73" s="1">
+        <v>130</v>
+      </c>
+      <c r="EE73" s="1">
+        <v>131</v>
+      </c>
+      <c r="EF73" s="1">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="74" spans="1:137">
+      <c r="D74" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N74" s="1"/>
+      <c r="O74" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="P74" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q74" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="R74" s="1"/>
+      <c r="S74" s="1"/>
+      <c r="T74" s="1"/>
+      <c r="U74" s="1"/>
+      <c r="V74" s="1"/>
+      <c r="W74" s="1"/>
+      <c r="X74" s="1"/>
+      <c r="Y74" s="1"/>
+      <c r="Z74" s="1"/>
+      <c r="AA74" s="1"/>
+      <c r="AB74" s="1"/>
+      <c r="AC74" s="1"/>
+      <c r="AD74" s="1"/>
+      <c r="AE74" s="1"/>
+      <c r="AF74" s="1"/>
+      <c r="AG74" s="1"/>
+      <c r="AH74" s="1"/>
+      <c r="AI74" s="1"/>
+      <c r="AJ74" s="1"/>
+      <c r="AK74" s="1"/>
+      <c r="AL74" s="1"/>
+      <c r="AM74" s="1"/>
+      <c r="AN74" s="1"/>
+      <c r="AO74" s="1"/>
+      <c r="AP74" s="1"/>
+      <c r="AQ74" s="1"/>
+      <c r="AR74" s="1"/>
+      <c r="AS74" s="1"/>
+      <c r="AT74" s="1"/>
+      <c r="AU74" s="1"/>
+      <c r="AV74" s="1"/>
+      <c r="AW74" s="1"/>
+      <c r="AX74" s="1"/>
+      <c r="AY74" s="1"/>
+      <c r="AZ74" s="1"/>
+      <c r="BA74" s="1"/>
+      <c r="BB74" s="1"/>
+      <c r="BC74" s="1"/>
+      <c r="BD74" s="1"/>
+      <c r="BE74" s="1"/>
+      <c r="BF74" s="1"/>
+      <c r="BG74" s="1"/>
+      <c r="BH74" s="1"/>
+      <c r="BI74" s="1"/>
+      <c r="BJ74" s="1"/>
+      <c r="BK74" s="1"/>
+      <c r="BL74" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BM74" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BN74" s="1"/>
+      <c r="BO74" s="1"/>
+      <c r="BP74" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ74" s="1"/>
+      <c r="BR74" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="BS74" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BT74" s="1"/>
+      <c r="BU74" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BV74" s="1"/>
+      <c r="BW74" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="BX74" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BY74" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BZ74" s="1"/>
+      <c r="CA74" s="1"/>
+      <c r="CB74" s="1"/>
+      <c r="CC74" s="1"/>
+      <c r="CD74" s="1"/>
+      <c r="CE74" s="1"/>
+      <c r="CF74" s="1"/>
+      <c r="CG74" s="1"/>
+      <c r="CH74" s="1"/>
+      <c r="CI74" s="1"/>
+      <c r="CJ74" s="1"/>
+      <c r="CK74" s="1"/>
+      <c r="CL74" s="1"/>
+      <c r="CM74" s="1"/>
+      <c r="CN74" s="1"/>
+      <c r="CO74" s="1"/>
+      <c r="CP74" s="1"/>
+      <c r="CQ74" s="1"/>
+      <c r="CR74" s="1"/>
+      <c r="CS74" s="1"/>
+      <c r="CT74" s="1"/>
+      <c r="CU74" s="1"/>
+      <c r="CV74" s="1"/>
+      <c r="CW74" s="1"/>
+      <c r="CX74" s="1"/>
+      <c r="CY74" s="1"/>
+      <c r="CZ74" s="1"/>
+      <c r="DA74" s="1"/>
+      <c r="DB74" s="1"/>
+      <c r="DC74" s="1"/>
+      <c r="DD74" s="1"/>
+      <c r="DE74" s="1"/>
+      <c r="DF74" s="1"/>
+      <c r="DG74" s="1"/>
+      <c r="DH74" s="1"/>
+      <c r="DI74" s="1"/>
+      <c r="DJ74" s="1"/>
+      <c r="DK74" s="1"/>
+      <c r="DL74" s="1"/>
+      <c r="DM74" s="1"/>
+      <c r="DN74" s="1"/>
+      <c r="DO74" s="1"/>
+      <c r="DP74" s="1"/>
+      <c r="DQ74" s="1"/>
+      <c r="DR74" s="1"/>
+      <c r="DS74" s="1"/>
+      <c r="DT74" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="DU74" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="DV74" s="1"/>
+      <c r="DW74" s="1"/>
+      <c r="DX74" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="DY74" s="1"/>
+      <c r="DZ74" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="EA74" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="EB74" s="1"/>
+      <c r="EC74" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="ED74" s="1"/>
+      <c r="EE74" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="EF74" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="EG74" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="75" spans="1:137">
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="N75" s="1"/>
+      <c r="O75" s="1"/>
+      <c r="P75" s="1"/>
+      <c r="Q75" s="1"/>
+      <c r="R75" s="1"/>
+      <c r="S75" s="1"/>
+      <c r="T75" s="1"/>
+      <c r="U75" s="1"/>
+      <c r="V75" s="1"/>
+      <c r="W75" s="1"/>
+      <c r="X75" s="1"/>
+      <c r="Y75" s="1"/>
+      <c r="Z75" s="1"/>
+      <c r="AA75" s="1"/>
+      <c r="AB75" s="1"/>
+      <c r="AC75" s="1"/>
+      <c r="AD75" s="1"/>
+      <c r="AE75" s="1"/>
+      <c r="AF75" s="1"/>
+      <c r="AG75" s="1"/>
+      <c r="AH75" s="1"/>
+      <c r="AI75" s="1"/>
+      <c r="AJ75" s="1"/>
+      <c r="AK75" s="1"/>
+      <c r="AL75" s="1"/>
+      <c r="AM75" s="1"/>
+      <c r="AN75" s="1"/>
+      <c r="AO75" s="1"/>
+      <c r="AP75" s="1"/>
+      <c r="AQ75" s="1"/>
+      <c r="AR75" s="1"/>
+      <c r="AS75" s="1"/>
+      <c r="AT75" s="1"/>
+      <c r="AU75" s="1"/>
+      <c r="AV75" s="1"/>
+      <c r="AW75" s="1"/>
+      <c r="AX75" s="1"/>
+      <c r="AY75" s="1"/>
+      <c r="AZ75" s="1"/>
+      <c r="BA75" s="1"/>
+      <c r="BB75" s="1"/>
+      <c r="BC75" s="1"/>
+      <c r="BD75" s="1"/>
+      <c r="BE75" s="1"/>
+      <c r="BF75" s="1"/>
+      <c r="BG75" s="1"/>
+      <c r="BH75" s="1"/>
+      <c r="BI75" s="1"/>
+      <c r="BJ75" s="1"/>
+      <c r="BK75" s="1"/>
+      <c r="BL75" s="1"/>
+      <c r="BM75" s="1"/>
+      <c r="BN75" s="1"/>
+      <c r="BO75" s="1"/>
+      <c r="BP75" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BQ75" s="1"/>
+      <c r="BR75" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BS75" s="1"/>
+      <c r="BT75" s="1"/>
+      <c r="BU75" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="BV75" s="1"/>
+      <c r="BW75" s="1"/>
+      <c r="BX75" s="1"/>
+      <c r="BY75" s="1"/>
+      <c r="BZ75" s="1"/>
+      <c r="CA75" s="1"/>
+      <c r="CB75" s="1"/>
+      <c r="CC75" s="1"/>
+      <c r="CD75" s="1"/>
+      <c r="CE75" s="1"/>
+      <c r="CF75" s="1"/>
+      <c r="CG75" s="1"/>
+      <c r="CH75" s="1"/>
+      <c r="CI75" s="1"/>
+      <c r="CJ75" s="1"/>
+      <c r="CK75" s="1"/>
+      <c r="CL75" s="1"/>
+      <c r="CM75" s="1"/>
+      <c r="CN75" s="1"/>
+      <c r="CO75" s="1"/>
+      <c r="CP75" s="1"/>
+      <c r="CQ75" s="1"/>
+      <c r="CR75" s="1"/>
+      <c r="CS75" s="1"/>
+      <c r="CT75" s="1"/>
+      <c r="CU75" s="1"/>
+      <c r="CV75" s="1"/>
+      <c r="CW75" s="1"/>
+      <c r="CX75" s="1"/>
+      <c r="CY75" s="1"/>
+      <c r="CZ75" s="1"/>
+      <c r="DA75" s="1"/>
+      <c r="DB75" s="1"/>
+      <c r="DC75" s="1"/>
+      <c r="DD75" s="1"/>
+      <c r="DE75" s="1"/>
+      <c r="DF75" s="1"/>
+      <c r="DG75" s="1"/>
+      <c r="DH75" s="1"/>
+      <c r="DI75" s="1"/>
+      <c r="DJ75" s="1"/>
+      <c r="DK75" s="1"/>
+      <c r="DL75" s="1"/>
+      <c r="DM75" s="1"/>
+      <c r="DN75" s="1"/>
+      <c r="DO75" s="1"/>
+      <c r="DP75" s="1"/>
+      <c r="DQ75" s="1"/>
+      <c r="DR75" s="1"/>
+      <c r="DS75" s="1"/>
+      <c r="DT75" s="1"/>
+      <c r="DU75" s="1"/>
+      <c r="DV75" s="1"/>
+      <c r="DW75" s="1"/>
+      <c r="DX75" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="DY75" s="1"/>
+      <c r="DZ75" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="EA75" s="1"/>
+      <c r="EB75" s="1"/>
+      <c r="EC75" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="ED75" s="1"/>
+      <c r="EE75" s="1"/>
+      <c r="EF75" s="1"/>
+      <c r="EG75" s="1"/>
+    </row>
+    <row r="76" spans="1:137">
+      <c r="D76" s="5">
+        <v>4</v>
+      </c>
+      <c r="E76" s="5">
+        <v>1</v>
+      </c>
+      <c r="F76" s="5">
+        <v>1</v>
+      </c>
+      <c r="G76" s="5">
+        <v>1</v>
+      </c>
+      <c r="H76" s="5">
         <v>3</v>
       </c>
-      <c r="H72" s="1">
+      <c r="I76" s="5">
+        <v>3</v>
+      </c>
+      <c r="J76" s="5">
+        <v>2</v>
+      </c>
+      <c r="K76" s="5">
+        <v>3</v>
+      </c>
+      <c r="L76" s="5">
+        <v>3</v>
+      </c>
+      <c r="M76" s="5">
+        <v>1</v>
+      </c>
+      <c r="N76" s="5">
+        <v>1</v>
+      </c>
+      <c r="O76" s="5">
+        <v>2</v>
+      </c>
+      <c r="P76" s="5">
         <v>4</v>
       </c>
-      <c r="I72" s="1">
-        <v>5</v>
-      </c>
-      <c r="J72" s="1">
-        <v>6</v>
-      </c>
-      <c r="K72" s="1">
-        <v>7</v>
-      </c>
-      <c r="L72" s="1">
-        <v>8</v>
-      </c>
-      <c r="M72" s="1">
-        <v>9</v>
-      </c>
-      <c r="N72" s="1">
-        <v>10</v>
-      </c>
-      <c r="O72" s="1">
-        <v>11</v>
-      </c>
-      <c r="P72" s="1">
-        <v>12</v>
-      </c>
-      <c r="Q72" s="1">
-        <v>13</v>
-      </c>
-      <c r="R72" s="1">
-        <v>14</v>
-      </c>
-      <c r="S72" s="1">
-        <v>15</v>
-      </c>
-      <c r="T72" s="1">
-        <v>16</v>
-      </c>
-      <c r="U72" s="1">
-        <v>17</v>
-      </c>
-      <c r="V72" s="1">
-        <v>18</v>
-      </c>
-      <c r="W72" s="1">
-        <v>19</v>
-      </c>
-      <c r="X72" s="1">
-        <v>20</v>
-      </c>
-      <c r="Y72" s="1">
-        <v>21</v>
-      </c>
-      <c r="Z72" s="1">
-        <v>22</v>
-      </c>
-      <c r="AA72" s="1">
-        <v>23</v>
-      </c>
-      <c r="AB72" s="1">
-        <v>24</v>
-      </c>
-      <c r="AC72" s="1">
-        <v>25</v>
-      </c>
-      <c r="AD72" s="1">
-        <v>26</v>
-      </c>
-      <c r="AE72" s="1">
-        <v>27</v>
-      </c>
-      <c r="AF72" s="1">
-        <v>28</v>
-      </c>
-      <c r="AG72" s="1">
-        <v>29</v>
-      </c>
-      <c r="AH72" s="1">
-        <v>30</v>
-      </c>
-      <c r="AI72" s="1">
-        <v>31</v>
-      </c>
-      <c r="AJ72" s="1">
-        <v>32</v>
-      </c>
-      <c r="AK72" s="1">
-        <v>33</v>
-      </c>
-      <c r="AL72" s="1">
-        <v>34</v>
-      </c>
-      <c r="AM72" s="1">
-        <v>35</v>
-      </c>
-      <c r="AN72" s="1">
-        <v>36</v>
-      </c>
-      <c r="AO72" s="1">
-        <v>37</v>
-      </c>
-      <c r="AP72" s="1">
-        <v>38</v>
-      </c>
-      <c r="AQ72" s="1">
-        <v>39</v>
-      </c>
-      <c r="AR72" s="1">
-        <v>40</v>
-      </c>
-      <c r="AS72" s="1">
-        <v>41</v>
-      </c>
-      <c r="AT72" s="1">
-        <v>42</v>
-      </c>
-      <c r="AU72" s="1">
-        <v>43</v>
-      </c>
-      <c r="AV72" s="1">
-        <v>44</v>
-      </c>
-      <c r="AW72" s="1">
-        <v>45</v>
-      </c>
-      <c r="AX72" s="1">
-        <v>46</v>
-      </c>
-      <c r="AY72" s="1">
-        <v>47</v>
-      </c>
-      <c r="AZ72" s="1">
-        <v>48</v>
-      </c>
-      <c r="BA72" s="1">
-        <v>49</v>
-      </c>
-      <c r="BB72" s="1">
-        <v>50</v>
-      </c>
-      <c r="BC72" s="1">
-        <v>51</v>
-      </c>
-      <c r="BD72" s="1">
-        <v>52</v>
-      </c>
-      <c r="BE72" s="1">
-        <v>53</v>
-      </c>
-      <c r="BF72" s="1">
-        <v>54</v>
-      </c>
-      <c r="BG72" s="1">
-        <v>55</v>
-      </c>
-      <c r="BH72" s="1">
-        <v>56</v>
-      </c>
-      <c r="BI72" s="1">
-        <v>57</v>
-      </c>
-      <c r="BJ72" s="1">
-        <v>58</v>
-      </c>
-      <c r="BK72" s="1">
-        <v>59</v>
-      </c>
-      <c r="BL72" s="1">
-        <v>60</v>
-      </c>
-      <c r="BM72" s="1">
-        <v>61</v>
-      </c>
-      <c r="BN72" s="1">
-        <v>62</v>
-      </c>
-      <c r="BO72" s="1">
-        <v>63</v>
-      </c>
-      <c r="BP72" s="1">
-        <v>64</v>
-      </c>
-      <c r="BQ72" s="1">
-        <v>65</v>
-      </c>
-      <c r="BR72" s="1">
-        <v>66</v>
-      </c>
-      <c r="BS72" s="1">
-        <v>67</v>
-      </c>
-      <c r="BT72" s="1">
-        <v>68</v>
-      </c>
-      <c r="BU72" s="1">
-        <v>69</v>
-      </c>
-      <c r="BV72" s="1">
-        <v>70</v>
-      </c>
-      <c r="BW72" s="1">
-        <v>71</v>
-      </c>
-      <c r="BX72" s="1">
-        <v>72</v>
-      </c>
-      <c r="BY72" s="1">
-        <v>73</v>
-      </c>
-      <c r="BZ72" s="1">
-        <v>74</v>
-      </c>
-      <c r="CA72" s="1">
-        <v>75</v>
-      </c>
-      <c r="CB72" s="1">
-        <v>76</v>
-      </c>
-      <c r="CC72" s="1">
-        <v>77</v>
-      </c>
-      <c r="CD72" s="1">
-        <v>78</v>
-      </c>
-      <c r="CE72" s="1">
-        <v>79</v>
-      </c>
-      <c r="CF72" s="1">
-        <v>80</v>
-      </c>
-      <c r="CG72" s="1">
-        <v>81</v>
-      </c>
-      <c r="CH72" s="1">
-        <v>82</v>
-      </c>
-      <c r="CI72" s="1">
-        <v>83</v>
-      </c>
-      <c r="CJ72" s="1">
-        <v>84</v>
-      </c>
-      <c r="CK72" s="1">
-        <v>85</v>
-      </c>
-      <c r="CL72" s="1">
-        <v>86</v>
-      </c>
-      <c r="CM72" s="1">
-        <v>87</v>
-      </c>
-      <c r="CN72" s="1">
-        <v>88</v>
-      </c>
-      <c r="CO72" s="1">
-        <v>89</v>
-      </c>
-      <c r="CP72" s="1">
-        <v>90</v>
-      </c>
-      <c r="CQ72" s="1">
-        <v>91</v>
-      </c>
-      <c r="CR72" s="1">
-        <v>92</v>
-      </c>
-      <c r="CS72" s="1">
-        <v>93</v>
-      </c>
-      <c r="CT72" s="1">
-        <v>94</v>
-      </c>
-      <c r="CU72" s="1">
-        <v>95</v>
-      </c>
-      <c r="CV72" s="1">
-        <v>96</v>
-      </c>
-      <c r="CW72" s="1">
-        <v>97</v>
-      </c>
-      <c r="CX72" s="1">
-        <v>98</v>
-      </c>
-      <c r="CY72" s="1">
-        <v>99</v>
-      </c>
-      <c r="CZ72" s="1">
-        <v>100</v>
-      </c>
-      <c r="DA72" s="1">
-        <v>101</v>
-      </c>
-      <c r="DB72" s="1">
-        <v>102</v>
-      </c>
-      <c r="DC72" s="1">
-        <v>103</v>
-      </c>
-      <c r="DD72" s="1">
-        <v>104</v>
-      </c>
-      <c r="DE72" s="1">
-        <v>105</v>
-      </c>
-      <c r="DF72" s="1">
-        <v>106</v>
-      </c>
-      <c r="DG72" s="1">
-        <v>107</v>
-      </c>
-      <c r="DH72" s="1">
-        <v>108</v>
-      </c>
-      <c r="DI72" s="1">
-        <v>109</v>
-      </c>
-      <c r="DJ72" s="1">
-        <v>110</v>
-      </c>
-      <c r="DK72" s="1">
-        <v>111</v>
-      </c>
-      <c r="DL72" s="1">
-        <v>112</v>
-      </c>
-      <c r="DM72" s="1">
-        <v>113</v>
-      </c>
-      <c r="DN72" s="1">
-        <v>114</v>
-      </c>
-      <c r="DO72" s="1">
-        <v>115</v>
-      </c>
-      <c r="DP72" s="1">
-        <v>116</v>
-      </c>
-      <c r="DQ72" s="1">
-        <v>117</v>
-      </c>
-      <c r="DR72" s="1">
-        <v>118</v>
-      </c>
-      <c r="DS72" s="1">
-        <v>119</v>
-      </c>
-      <c r="DT72" s="1">
-        <v>120</v>
-      </c>
-      <c r="DU72" s="1">
-        <v>121</v>
-      </c>
-      <c r="DV72" s="1">
-        <v>122</v>
-      </c>
-      <c r="DW72" s="1">
-        <v>123</v>
-      </c>
-      <c r="DX72" s="1">
-        <v>124</v>
-      </c>
-      <c r="DY72" s="1">
-        <v>125</v>
-      </c>
-      <c r="DZ72" s="1">
-        <v>126</v>
-      </c>
-      <c r="EA72" s="1">
-        <v>127</v>
-      </c>
-      <c r="EB72" s="1">
-        <v>128</v>
-      </c>
-      <c r="EC72" s="1">
-        <v>129</v>
-      </c>
-      <c r="ED72" s="1">
-        <v>130</v>
-      </c>
-      <c r="EE72" s="1">
-        <v>131</v>
-      </c>
-      <c r="EF72" s="1">
-        <v>132</v>
-      </c>
+      <c r="BL76" s="5">
+        <v>4</v>
+      </c>
+      <c r="BM76" s="5">
+        <v>1</v>
+      </c>
+      <c r="BN76" s="5">
+        <v>1</v>
+      </c>
+      <c r="BO76" s="5">
+        <v>1</v>
+      </c>
+      <c r="BP76" s="5">
+        <v>3</v>
+      </c>
+      <c r="BQ76" s="5">
+        <v>3</v>
+      </c>
+      <c r="BR76" s="5">
+        <v>2</v>
+      </c>
+      <c r="BS76" s="5">
+        <v>3</v>
+      </c>
+      <c r="BT76" s="5">
+        <v>3</v>
+      </c>
+      <c r="BU76" s="5">
+        <v>1</v>
+      </c>
+      <c r="BV76" s="5">
+        <v>1</v>
+      </c>
+      <c r="BW76" s="5">
+        <v>2</v>
+      </c>
+      <c r="BX76" s="5">
+        <v>4</v>
+      </c>
+      <c r="BY76" s="5"/>
+      <c r="CP76" s="5"/>
+      <c r="CQ76" s="5"/>
+      <c r="CR76" s="5">
+        <v>2</v>
+      </c>
+      <c r="CS76" s="5">
+        <v>1</v>
+      </c>
+      <c r="CT76" s="5">
+        <v>1</v>
+      </c>
+      <c r="CU76" s="5">
+        <v>3</v>
+      </c>
+      <c r="CV76" s="5">
+        <v>3</v>
+      </c>
+      <c r="CW76" s="5">
+        <v>2</v>
+      </c>
+      <c r="DT76" s="5">
+        <v>4</v>
+      </c>
+      <c r="DU76" s="5">
+        <v>1</v>
+      </c>
+      <c r="DV76" s="5">
+        <v>1</v>
+      </c>
+      <c r="DW76" s="5">
+        <v>1</v>
+      </c>
+      <c r="DX76" s="5">
+        <v>3</v>
+      </c>
+      <c r="DY76" s="5">
+        <v>3</v>
+      </c>
+      <c r="DZ76" s="5">
+        <v>2</v>
+      </c>
+      <c r="EA76" s="5">
+        <v>3</v>
+      </c>
+      <c r="EB76" s="5">
+        <v>3</v>
+      </c>
+      <c r="EC76" s="5">
+        <v>1</v>
+      </c>
+      <c r="ED76" s="5">
+        <v>1</v>
+      </c>
+      <c r="EE76" s="5">
+        <v>2</v>
+      </c>
+      <c r="EF76" s="5">
+        <v>4</v>
+      </c>
+      <c r="EG76" s="5"/>
     </row>
-    <row r="73" spans="1:136">
-      <c r="F73" s="5">
-        <v>2</v>
-      </c>
-      <c r="G73" s="5">
-        <v>1</v>
-      </c>
-      <c r="H73" s="5">
-        <v>1</v>
-      </c>
-      <c r="I73" s="5">
-        <v>3</v>
-      </c>
-      <c r="J73" s="5">
-        <v>3</v>
-      </c>
-      <c r="K73" s="5">
-        <v>2</v>
-      </c>
-      <c r="BL73" s="5"/>
-      <c r="BM73" s="5"/>
-      <c r="BN73" s="5">
-        <v>2</v>
-      </c>
-      <c r="BO73" s="5">
-        <v>1</v>
-      </c>
-      <c r="BP73" s="5">
-        <v>1</v>
-      </c>
-      <c r="BQ73" s="5">
-        <v>3</v>
-      </c>
-      <c r="BR73" s="5">
-        <v>3</v>
-      </c>
-      <c r="BS73" s="5">
-        <v>2</v>
-      </c>
-      <c r="CP73" s="5"/>
-      <c r="CQ73" s="5"/>
-      <c r="CR73" s="5">
-        <v>2</v>
-      </c>
-      <c r="CS73" s="5">
-        <v>1</v>
-      </c>
-      <c r="CT73" s="5">
-        <v>1</v>
-      </c>
-      <c r="CU73" s="5">
-        <v>3</v>
-      </c>
-      <c r="CV73" s="5">
-        <v>3</v>
-      </c>
-      <c r="CW73" s="5">
-        <v>2</v>
-      </c>
-      <c r="DT73" s="5"/>
-      <c r="DU73" s="5"/>
-      <c r="DV73" s="5">
-        <v>2</v>
-      </c>
-      <c r="DW73" s="5">
-        <v>1</v>
-      </c>
-      <c r="DX73" s="5">
-        <v>1</v>
-      </c>
-      <c r="DY73" s="5">
-        <v>3</v>
-      </c>
-      <c r="DZ73" s="5">
-        <v>3</v>
-      </c>
-      <c r="EA73" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:136">
-      <c r="D74" s="5">
-        <v>4</v>
-      </c>
-      <c r="E74" s="5">
-        <v>3</v>
-      </c>
-      <c r="F74" s="5">
-        <v>3</v>
-      </c>
-      <c r="G74" s="5">
-        <v>3</v>
-      </c>
-      <c r="H74" s="5">
-        <v>1</v>
-      </c>
-      <c r="I74" s="5">
-        <v>1</v>
-      </c>
-      <c r="J74" s="5">
-        <v>4</v>
-      </c>
-      <c r="BL74" s="5">
-        <v>4</v>
-      </c>
-      <c r="BM74" s="5">
-        <v>3</v>
-      </c>
-      <c r="BN74" s="5">
-        <v>3</v>
-      </c>
-      <c r="BO74" s="5">
-        <v>3</v>
-      </c>
-      <c r="BP74" s="5">
-        <v>1</v>
-      </c>
-      <c r="BQ74" s="5">
-        <v>1</v>
-      </c>
-      <c r="BR74" s="5">
-        <v>4</v>
-      </c>
-      <c r="DT74" s="5">
-        <v>4</v>
-      </c>
-      <c r="DU74" s="5">
-        <v>3</v>
-      </c>
-      <c r="DV74" s="5">
-        <v>3</v>
-      </c>
-      <c r="DW74" s="5">
-        <v>3</v>
-      </c>
-      <c r="DX74" s="5">
-        <v>1</v>
-      </c>
-      <c r="DY74" s="5">
-        <v>1</v>
-      </c>
-      <c r="DZ74" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="75" spans="1:136">
-      <c r="D75" s="5">
-        <v>4</v>
-      </c>
-      <c r="E75" s="5">
-        <v>3</v>
-      </c>
-      <c r="F75" s="5">
-        <v>2</v>
-      </c>
-      <c r="G75" s="5">
-        <v>1</v>
-      </c>
-      <c r="H75" s="5">
-        <v>1</v>
-      </c>
-      <c r="I75" s="5">
-        <v>3</v>
-      </c>
-      <c r="J75" s="5">
-        <v>3</v>
-      </c>
-      <c r="K75" s="5">
-        <v>2</v>
-      </c>
-      <c r="L75" s="5">
-        <v>3</v>
-      </c>
-      <c r="M75" s="5">
-        <v>3</v>
-      </c>
-      <c r="N75" s="5">
-        <v>1</v>
-      </c>
-      <c r="O75" s="5">
-        <v>1</v>
-      </c>
-      <c r="P75" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="76" spans="1:136">
-      <c r="D76" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F76" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G76" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="I76" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="K76" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="L76" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="N76" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="P76" s="5" t="s">
-        <v>39</v>
-      </c>
+    <row r="77" spans="1:137">
+      <c r="BL77" s="5"/>
+      <c r="BM77" s="5"/>
+      <c r="BN77" s="5"/>
+      <c r="BO77" s="5"/>
+      <c r="BP77" s="5"/>
+      <c r="BQ77" s="5"/>
+      <c r="BR77" s="5"/>
+      <c r="DT77" s="5"/>
+      <c r="DU77" s="5"/>
+      <c r="DV77" s="5"/>
+      <c r="DW77" s="5"/>
+      <c r="DX77" s="5"/>
+      <c r="DY77" s="5"/>
+      <c r="DZ77" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
